--- a/figures/result.xlsx
+++ b/figures/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sakakibara\photon_mapping_output_image\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69034B32-007D-41FA-9ACE-9EDB585E3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26ADCB-92F8-41BC-B92E-1CE918E5839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c1b (2)" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>c1b</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,24 @@
     <rPh sb="0" eb="3">
       <t>サイショウチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cycle数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割合</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Gray_MSE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1218,6 +1236,408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc (2)'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>*Gray_MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'wc (2)'!$V$3:$V$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>132.40936279296801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.87816605352552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.80979871868357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.02163291773513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.29734865493558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.10537061896041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.52719871536587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.43157759115932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.32167043509348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.71542577021997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.67411252894557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125.99708707440469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126.88776063225387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126.66012290343672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>124.67846804513876</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126.48362672457532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111.03875654463214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7205-47ED-A404-BE3592BCE05F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1141054815"/>
+        <c:axId val="1141050975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1141054815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141050975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1141050975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141054815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1234,7 +1654,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10984427083333335"/>
+          <c:y val="2.791166965529987E-2"/>
+          <c:w val="0.85584809027777775"/>
+          <c:h val="0.8479365444074265"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1579,6 +2009,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.29202219746956837"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3580,6 +4018,408 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c1b (2)'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>*Gray_MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'c1b (2)'!$V$3:$V$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>72.1105143229166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.180399226256313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.569819015709101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.410728726533335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.319396058621912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.636008344218027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.125608362079205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.153116020740526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.791223044769339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.285992388815615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.878860056772169</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.641436300009886</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.826913428508327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.056279400880371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.679155311492792</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.641529825628183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.024244252712748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CBD-4F8E-B064-2DA16857A86D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1141061055"/>
+        <c:axId val="1141062015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1141061055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141062015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1141062015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141061055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -4587,7 +5427,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5073,7 +5913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5790,7 +6630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5918,7 +6758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6979,6 +7819,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7259,6 +8139,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7775,7 +8695,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8291,7 +9211,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8807,7 +9727,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9323,7 +10243,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9839,7 +10759,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10355,7 +11275,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10871,7 +11791,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11435,8 +13387,8 @@
       <xdr:rowOff>73819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>433916</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538711</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>189394</xdr:rowOff>
     </xdr:to>
@@ -11534,6 +13486,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>89958</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058D4EDA-D70D-A18B-8881-5F5C19624E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11694,6 +13682,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F004CFC6-943C-3C1A-BECB-00DAC15963DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11960,10 +13984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC53CF9-F476-46BF-844B-A201D5CD8083}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -11974,7 +13998,7 @@
     <col min="4" max="4" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12003,8 +14027,11 @@
       <c r="R1" t="s">
         <v>15</v>
       </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12057,8 +14084,14 @@
         <f>MAX(E3:L19)</f>
         <v>119.132893880208</v>
       </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12113,8 +14146,16 @@
         <f>MIN(E3:L19)</f>
         <v>64.2982584635416</v>
       </c>
+      <c r="U3">
+        <f>D3/D$3</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f>H3*U3</f>
+        <v>72.1105143229166</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12162,8 +14203,16 @@
       <c r="P4" s="2">
         <v>19.080322265625</v>
       </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U19" si="2">D4/D$3</f>
+        <v>0.98482450710892522</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V19" si="3">H4*U4</f>
+        <v>66.180399226256313</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12211,8 +14260,16 @@
       <c r="P5" s="2">
         <v>20.1654459635416</v>
       </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.96991774645103213</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>77.569819015709101</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12260,8 +14317,16 @@
       <c r="P6" s="2">
         <v>21.431884765625</v>
       </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.95384324197735426</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>77.410728726533335</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>4</v>
       </c>
@@ -12309,8 +14374,16 @@
       <c r="P7" s="2">
         <v>20.0382486979166</v>
       </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0.93811865982068887</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>60.319396058621912</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12358,8 +14431,16 @@
       <c r="P8" s="2">
         <v>19.7001139322916</v>
       </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0.92162524198553919</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>59.636008344218027</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12407,8 +14488,16 @@
       <c r="P9" s="2">
         <v>21.2727864583333</v>
       </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0.90607415717768036</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>84.125608362079205</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12456,8 +14545,16 @@
       <c r="P10" s="2">
         <v>21.5714518229166</v>
       </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0.88855988156395915</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>72.153116020740526</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>8</v>
       </c>
@@ -12505,8 +14602,16 @@
       <c r="P11" s="2">
         <v>21.7640787760416</v>
       </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0.87312095439397286</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>70.791223044769339</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>9</v>
       </c>
@@ -12514,7 +14619,7 @@
         <v>2376400613</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C19" si="2">16*B$3+16*B12</f>
+        <f t="shared" ref="C12:C19" si="4">16*B$3+16*B12</f>
         <v>91338083296</v>
       </c>
       <c r="D12" s="3">
@@ -12554,8 +14659,16 @@
       <c r="P12" s="2">
         <v>20.9746907552083</v>
       </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0.85657816286010036</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>65.285992388815615</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12563,7 +14676,7 @@
         <v>2265272194</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89560028592</v>
       </c>
       <c r="D13" s="3">
@@ -12603,8 +14716,16 @@
       <c r="P13" s="2">
         <v>22.2255045572916</v>
       </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.83990337862052589</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>71.878860056772169</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12612,7 +14733,7 @@
         <v>2158695170</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87854796208</v>
       </c>
       <c r="D14" s="3">
@@ -12652,8 +14773,16 @@
       <c r="P14" s="2">
         <v>21.5962727864583</v>
       </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0.82391152976595028</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>74.641436300009886</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12661,7 +14790,7 @@
         <v>2052163805</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86150294368</v>
       </c>
       <c r="D15" s="3">
@@ -12701,8 +14830,16 @@
       <c r="P15" s="2">
         <v>20.7105305989583</v>
       </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.80792653202993148</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>60.826913428508327</v>
+      </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>13</v>
       </c>
@@ -12710,7 +14847,7 @@
         <v>1948975216</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84499276944</v>
       </c>
       <c r="D16" s="3">
@@ -12750,8 +14887,16 @@
       <c r="P16" s="2">
         <v>21.6283365885416</v>
       </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0.79244311677895829</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>70.056279400880371</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>14</v>
       </c>
@@ -12759,7 +14904,7 @@
         <v>1842879793</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82801750176</v>
       </c>
       <c r="D17" s="3">
@@ -12799,8 +14944,16 @@
       <c r="P17" s="2">
         <v>21.348388671875</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0.77652353200261603</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>74.679155311492792</v>
+      </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>15</v>
       </c>
@@ -12808,7 +14961,7 @@
         <v>1741805296</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81184558224</v>
       </c>
       <c r="D18" s="3">
@@ -12848,8 +15001,16 @@
       <c r="P18" s="2">
         <v>20.7162272135416</v>
       </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.76135733558981089</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>62.641529825628183</v>
+      </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>16</v>
       </c>
@@ -12857,7 +15018,7 @@
         <v>1632326367</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79432895360</v>
       </c>
       <c r="D19" s="3">
@@ -12896,6 +15057,14 @@
       </c>
       <c r="P19" s="2">
         <v>22.2242024739583</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.74493005680476221</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>69.024244252712748</v>
       </c>
     </row>
   </sheetData>
@@ -12913,10 +15082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6519B477-C4AB-467B-9B48-9C9ED35D0024}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -12926,7 +15095,7 @@
     <col min="4" max="4" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12955,8 +15124,11 @@
       <c r="R1" t="s">
         <v>15</v>
       </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13009,8 +15181,14 @@
         <f>MAX(E3:L19)</f>
         <v>178.13342285156199</v>
       </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13065,8 +15243,16 @@
         <f>MIN(E3:L19)</f>
         <v>89.925048828125</v>
       </c>
+      <c r="U3">
+        <f>D3/D$3</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f>H3*U3</f>
+        <v>132.40936279296801</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13114,8 +15300,16 @@
       <c r="P4" s="2">
         <v>2.36907958984375</v>
       </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U19" si="2">D4/D$3</f>
+        <v>0.99261240038394727</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V19" si="3">H4*U4</f>
+        <v>131.87816605352552</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13163,8 +15357,16 @@
       <c r="P5" s="2">
         <v>2.32696533203125</v>
       </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.98421558513964491</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>131.80979871868357</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13212,8 +15414,16 @@
       <c r="P6" s="2">
         <v>2.32769775390625</v>
       </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.97545780511467783</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>128.02163291773513</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13261,8 +15471,16 @@
       <c r="P7" s="2">
         <v>2.34027099609375</v>
       </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0.96645891146756024</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>130.29734865493558</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13310,8 +15528,16 @@
       <c r="P8" s="2">
         <v>2.30535888671875</v>
       </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0.9569070856243197</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>124.10537061896041</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13359,8 +15585,16 @@
       <c r="P9" s="2">
         <v>2.56134033203125</v>
       </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0.94788111947684328</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>133.52719871536587</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13408,8 +15642,16 @@
       <c r="P10" s="2">
         <v>2.36920166015625</v>
       </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0.93941010900047439</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>127.43157759115932</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13457,8 +15699,16 @@
       <c r="P11" s="2">
         <v>2.4202880859375</v>
       </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0.93061232294090035</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>127.32167043509348</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13466,11 +15716,11 @@
         <v>3782772283</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C19" si="2">16*B$3+16*B12</f>
+        <f t="shared" ref="C12:C19" si="4">16*B$3+16*B12</f>
         <v>132452105136</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="3">C12/(10^8)</f>
+        <f t="shared" ref="D12:D19" si="5">C12/(10^8)</f>
         <v>1324.52105136</v>
       </c>
       <c r="E12" s="2">
@@ -13506,8 +15756,16 @@
       <c r="P12" s="2">
         <v>2.41326904296875</v>
       </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0.92073023067809678</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>123.71542577021997</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13515,11 +15773,11 @@
         <v>3697568874</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>131088850592</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1310.8885059199999</v>
       </c>
       <c r="E13" s="2">
@@ -13555,8 +15813,16 @@
       <c r="P13" s="2">
         <v>2.46826171875</v>
       </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.91125367559064629</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>121.67411252894557</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13564,11 +15830,11 @@
         <v>3618819490</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>129828860448</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1298.28860448</v>
       </c>
       <c r="E14" s="2">
@@ -13604,8 +15870,16 @@
       <c r="P14" s="2">
         <v>2.48480224609375</v>
       </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0.90249495473267238</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>125.99708707440469</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13613,11 +15887,11 @@
         <v>3537108314</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128521481632</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1285.21481632</v>
       </c>
       <c r="E15" s="2">
@@ -13653,8 +15927,16 @@
       <c r="P15" s="2">
         <v>2.57501220703125</v>
       </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.89340681530594634</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>126.88776063225387</v>
+      </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>13</v>
       </c>
@@ -13662,11 +15944,11 @@
         <v>3455514837</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127215986000</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1272.15986</v>
       </c>
       <c r="E16" s="2">
@@ -13702,8 +15984,16 @@
       <c r="P16" s="2">
         <v>2.5599365234375</v>
       </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0.88433176668239755</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>126.66012290343672</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>14</v>
       </c>
@@ -13711,11 +16001,11 @@
         <v>3372644124</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125890054592</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1258.90054592</v>
       </c>
       <c r="E17" s="2">
@@ -13751,8 +16041,16 @@
       <c r="P17" s="2">
         <v>2.59722900390625</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0.87511466039407049</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>124.67846804513876</v>
+      </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>15</v>
       </c>
@@ -13760,11 +16058,11 @@
         <v>3292618146</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124609638944</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1246.0963894399999</v>
       </c>
       <c r="E18" s="2">
@@ -13800,8 +16098,16 @@
       <c r="P18" s="2">
         <v>2.63763427734375</v>
       </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.86621395327630601</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>126.48362672457532</v>
+      </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>16</v>
       </c>
@@ -13809,11 +16115,11 @@
         <v>3211811223</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>123316728176</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1233.1672817599999</v>
       </c>
       <c r="E19" s="2">
@@ -13848,6 +16154,14 @@
       </c>
       <c r="P19" s="2">
         <v>2.89959716796875</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.85722638732977363</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>111.03875654463214</v>
       </c>
     </row>
   </sheetData>

--- a/figures/result.xlsx
+++ b/figures/result.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sakakibara\photon_mapping_output_image\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26ADCB-92F8-41BC-B92E-1CE918E5839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7307E68-0BE0-4EA4-A83D-7C2D2A1085E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="c1b (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="wc (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="c1b (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="wc (3)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>c1b</t>
     <phoneticPr fontId="1"/>
@@ -83,13 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>億</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -120,21 +113,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cycle数</t>
-    <rPh sb="5" eb="6">
+    <t>サイクル数（単位：億）</t>
+    <rPh sb="4" eb="5">
       <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>割合</t>
-    <rPh sb="0" eb="2">
-      <t>ワリアイ</t>
-    </rPh>
+    <t>MSE_Gray</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*Gray_MSE</t>
+    <t>EC積（単位：兆）</t>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -145,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +163,19 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,13 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,7 +251,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10707725694444445"/>
+          <c:y val="2.7718253968253968E-2"/>
+          <c:w val="0.85861510416666686"/>
+          <c:h val="0.81906686507936521"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -240,7 +270,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$E$2</c:f>
+              <c:f>'c1b (3)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,7 +305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -335,60 +365,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$E$3:$E$19</c:f>
+              <c:f>'c1b (3)'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>90.215087890625</c:v>
+                  <c:v>96.6223551432291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.6280924479166</c:v>
+                  <c:v>95.249654134114493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.212158203125</c:v>
+                  <c:v>102.265563964843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.4973958333333</c:v>
+                  <c:v>98.49072265625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.1527506510416</c:v>
+                  <c:v>92.495707194010393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.1424153645833</c:v>
+                  <c:v>94.0990804036458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.914469401041</c:v>
+                  <c:v>95.3047688802083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.196370442708</c:v>
+                  <c:v>92.947896321614493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107.419514973958</c:v>
+                  <c:v>91.400085449218693</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.7327473958333</c:v>
+                  <c:v>94.903055826822893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106.934407552083</c:v>
+                  <c:v>95.9983723958333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115.410481770833</c:v>
+                  <c:v>91.7731526692708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.594970703125</c:v>
+                  <c:v>91.357889811197893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107.515950520833</c:v>
+                  <c:v>94.1580403645833</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119.132893880208</c:v>
+                  <c:v>89.7767333984375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.462076822916</c:v>
+                  <c:v>94.1113688151041</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.6064453125</c:v>
+                  <c:v>89.4882405598958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,7 +435,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$F$2</c:f>
+              <c:f>'c1b (3)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -440,7 +470,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -500,60 +530,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$F$3:$F$19</c:f>
+              <c:f>'c1b (3)'!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>90.742919921875</c:v>
+                  <c:v>87.2761637369791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.220947265625</c:v>
+                  <c:v>87.700052897135393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.5545247395833</c:v>
+                  <c:v>89.1708170572916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.527180989583</c:v>
+                  <c:v>84.6866861979166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.6979166666666</c:v>
+                  <c:v>82.412984212239493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.235107421875</c:v>
+                  <c:v>82.525492350260393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.031087239583</c:v>
+                  <c:v>83.323628743489493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.9817708333333</c:v>
+                  <c:v>87.3469645182291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.388671875</c:v>
+                  <c:v>85.9220377604166</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.0345052083333</c:v>
+                  <c:v>83.213887532551993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104.692464192708</c:v>
+                  <c:v>85.453633626301993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106.810791015625</c:v>
+                  <c:v>85.056538899739493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.44189453125</c:v>
+                  <c:v>83.968485514322893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107.953694661458</c:v>
+                  <c:v>86.60009765625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.156901041666</c:v>
+                  <c:v>84.4059244791666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.626139322916</c:v>
+                  <c:v>85.185302734375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.452555338541</c:v>
+                  <c:v>79.606689453125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +600,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$G$2</c:f>
+              <c:f>'c1b (3)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -605,7 +635,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -665,60 +695,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$G$3:$G$19</c:f>
+              <c:f>'c1b (3)'!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>85.8946126302083</c:v>
+                  <c:v>82.816752115885393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.2611490885416</c:v>
+                  <c:v>83.173482259114493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.850341796875</c:v>
+                  <c:v>83.1320393880208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.3207194010416</c:v>
+                  <c:v>78.5652262369791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.7950032552083</c:v>
+                  <c:v>78.068013509114493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.3519694010416</c:v>
+                  <c:v>77.808532714843693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.779296875</c:v>
+                  <c:v>79.970947265625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.9742838541666</c:v>
+                  <c:v>83.473388671875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.421142578125</c:v>
+                  <c:v>80.919047037760393</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.3193359375</c:v>
+                  <c:v>78.1372477213541</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.5546875</c:v>
+                  <c:v>81.0636800130208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.075439453125</c:v>
+                  <c:v>80.8420817057291</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.5602213541666</c:v>
+                  <c:v>79.735168457031193</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.320556640625</c:v>
+                  <c:v>83.1587727864583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109.822672526041</c:v>
+                  <c:v>79.283345540364493</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.168538411458</c:v>
+                  <c:v>80.323913574218693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.724609375</c:v>
+                  <c:v>74.1369222005208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,7 +765,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$H$2</c:f>
+              <c:f>'c1b (3)'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -779,7 +809,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -839,60 +869,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$H$3:$H$19</c:f>
+              <c:f>'c1b (3)'!$H$3:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>72.1105143229166</c:v>
+                  <c:v>70.821960449218693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.2001953125</c:v>
+                  <c:v>70.7691243489583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.9756673177083</c:v>
+                  <c:v>72.3790690104166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.1566569010416</c:v>
+                  <c:v>69.4139404296875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.2982584635416</c:v>
+                  <c:v>65.810363769531193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.7074381510416</c:v>
+                  <c:v>66.5900472005208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.8462727864583</c:v>
+                  <c:v>67.3459065755208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.2023111979166</c:v>
+                  <c:v>69.384094238281193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.078369140625</c:v>
+                  <c:v>68.6669108072916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.2172037760416</c:v>
+                  <c:v>67.315979003906193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.5799153645833</c:v>
+                  <c:v>69.0785319010416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.593994140625</c:v>
+                  <c:v>67.731750488281193</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.2876790364583</c:v>
+                  <c:v>67.1111653645833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.4054361979166</c:v>
+                  <c:v>69.419576009114493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.171142578125</c:v>
+                  <c:v>67.07177734375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.276123046875</c:v>
+                  <c:v>67.896545410156193</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92.65869140625</c:v>
+                  <c:v>63.8853759765625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,6 +947,540 @@
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1309493279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>近似積極度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47464861111111112"/>
+              <c:y val="0.88760218253968259"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309495679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1309495679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>MSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.39311666666666667"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309493279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc (3)'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC積（単位：兆）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'wc (3)'!$U$3:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>22.791596086080428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.678155557699817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.878140140480344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.58950290125248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.403949874374209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.973774704364093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.610594011376858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.052021658921532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.711498724501048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.132641159381329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.917598076587339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.521362709850589</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.585585523240734</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.464392128411227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.464859850807635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.006166475708298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.226103664236863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC16-4420-88D4-5185AD506C02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113425344"/>
+        <c:axId val="113381888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113425344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1029,16 +1593,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309495679"/>
+        <c:crossAx val="113381888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1309495679"/>
+        <c:axId val="113381888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="60"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1077,9 +1640,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>MSE</a:t>
+                  <a:t>EC</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>積（単位：兆）</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1108,11 +1674,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1149,7 +1715,825 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309493279"/>
+        <c:crossAx val="113425344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10984427083333335"/>
+          <c:y val="2.791166965529987E-2"/>
+          <c:w val="0.79290885416666668"/>
+          <c:h val="0.83281746031746029"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c1b (3)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>サイクル数（単位：億）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'c1b (3)'!$D$3:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1390.43316224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1365.0481855999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1339.66320896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1314.2782323199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1288.89325568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1263.5082790399999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1238.1233024000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1212.73832576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1187.3533491200001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1155.64213232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1132.8379859199999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1106.4372143999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1082.9958736000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1057.8650192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1034.5477766399999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1009.65851264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>984.27353600000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C43-401E-8829-56DF0156BD91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1343367903"/>
+        <c:axId val="1343368383"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c1b (3)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gray</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'c1b (3)'!$H$3:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>70.821960449218693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.7691243489583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.3790690104166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.4139404296875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.810363769531193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.5900472005208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.3459065755208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.384094238281193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.6669108072916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.315979003906193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.0785319010416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.731750488281193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.1111653645833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.419576009114493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.07177734375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.896545410156193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.8853759765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E2D-4742-BC92-331C8AA57436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="854240256"/>
+        <c:axId val="854237856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1343367903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>近似積極度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44555989583333333"/>
+              <c:y val="0.90036448412698411"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343368383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1343368383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>サイクル数（単位：億）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.29202219746956837"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343367903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="854237856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>MSE_Gray</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854240256"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="854240256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="854237856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,409 +2620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'wc (2)'!$V$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>*Gray_MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'wc (2)'!$V$3:$V$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>132.40936279296801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131.87816605352552</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>131.80979871868357</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128.02163291773513</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>130.29734865493558</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124.10537061896041</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>133.52719871536587</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>127.43157759115932</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127.32167043509348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>123.71542577021997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>121.67411252894557</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>125.99708707440469</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126.88776063225387</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>126.66012290343672</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>124.67846804513876</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>126.48362672457532</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>111.03875654463214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7205-47ED-A404-BE3592BCE05F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1141054815"/>
-        <c:axId val="1141050975"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1141054815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1141050975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1141050975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1141054815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1659,10 +2641,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10984427083333335"/>
-          <c:y val="2.791166965529987E-2"/>
-          <c:w val="0.85584809027777775"/>
-          <c:h val="0.8479365444074265"/>
+          <c:x val="9.9374027759207867E-2"/>
+          <c:y val="2.7527500406409947E-2"/>
+          <c:w val="0.86626782807296765"/>
+          <c:h val="0.82531702438952304"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1673,498 +2655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>億</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'c1b (2)'!$D$3:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1066.3134697600001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1050.1316372799999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034.2363576</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1017.09589696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.3285632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>982.7414096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>966.1590784</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>947.48337040000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>931.02063439999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>913.38083296000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>895.60028592000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>878.54796208000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>861.50294368000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>844.99276943999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>828.01750175999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>811.84558224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>794.32895359999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C43-401E-8829-56DF0156BD91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1343367903"/>
-        <c:axId val="1343368383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1343367903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="16"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>近似積極度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1343368383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1343368383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>サイクル数　（単位：億）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="8.819444444444444E-3"/>
-              <c:y val="0.29202219746956837"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1343367903"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'c1b (2)'!$N$2</c:f>
+              <c:f>'c1b (3)'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2199,7 +2690,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2259,60 +2750,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$N$3:$N$19</c:f>
+              <c:f>'c1b (3)'!$N$3:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>72.1503092447916</c:v>
+                  <c:v>70.8827718098958</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.3687337239583</c:v>
+                  <c:v>70.7947184244791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.0321451822916</c:v>
+                  <c:v>72.376810709635393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.3482259114583</c:v>
+                  <c:v>69.4333089192708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.3153483072916</c:v>
+                  <c:v>65.7651774088541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.7736002604166</c:v>
+                  <c:v>66.612487792968693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.02734375</c:v>
+                  <c:v>67.3314208984375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.316650390625</c:v>
+                  <c:v>69.4300537109375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.3715006510416</c:v>
+                  <c:v>68.6319173177083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.4935709635416</c:v>
+                  <c:v>67.3232014973958</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.9794921875</c:v>
+                  <c:v>69.0281575520833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.73876953125</c:v>
+                  <c:v>67.6955973307291</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.5015462239583</c:v>
+                  <c:v>67.176167805989493</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.651611328125</c:v>
+                  <c:v>69.45068359375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.592529296875</c:v>
+                  <c:v>67.048767089843693</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.507080078125</c:v>
+                  <c:v>67.920471191406193</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92.8548990885416</c:v>
+                  <c:v>63.8948160807291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2820,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$O$2</c:f>
+              <c:f>'c1b (3)'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2364,7 +2855,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2424,60 +2915,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$O$3:$O$19</c:f>
+              <c:f>'c1b (3)'!$O$3:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>4.8170572916666599</c:v>
+                  <c:v>4.9231770833333304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.494873046875</c:v>
+                  <c:v>4.7752888997395804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4336751302083304</c:v>
+                  <c:v>5.1771240234375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0150553385416599</c:v>
+                  <c:v>4.8164265950520804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.544921875</c:v>
+                  <c:v>5.08587646484375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6394856770833304</c:v>
+                  <c:v>4.8477579752604099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0284016927083304</c:v>
+                  <c:v>4.8774007161458304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.010986328125</c:v>
+                  <c:v>4.9306233723958304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7984212239583304</c:v>
+                  <c:v>4.7107950846354099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9965006510416599</c:v>
+                  <c:v>4.9323933919270804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0043131510416599</c:v>
+                  <c:v>5.0415852864583304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.036376953125</c:v>
+                  <c:v>4.9558512369791599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8745930989583304</c:v>
+                  <c:v>4.7354939778645804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9158528645833304</c:v>
+                  <c:v>5.0482177734375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1432291666666599</c:v>
+                  <c:v>4.83526611328125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1272786458333304</c:v>
+                  <c:v>5.0616251627604099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2303873697916599</c:v>
+                  <c:v>4.8279012044270804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2494,7 +2985,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$P$2</c:f>
+              <c:f>'c1b (3)'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2529,7 +3020,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2589,60 +3080,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$P$3:$P$19</c:f>
+              <c:f>'c1b (3)'!$P$3:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>20.535400390625</c:v>
+                  <c:v>21.3431599934895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.080322265625</c:v>
+                  <c:v>21.3474731445312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.1654459635416</c:v>
+                  <c:v>22.8896077473958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.431884765625</c:v>
+                  <c:v>21.3824666341145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0382486979166</c:v>
+                  <c:v>21.8747965494791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.7001139322916</c:v>
+                  <c:v>21.6129760742187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.2727864583333</c:v>
+                  <c:v>21.9504191080729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.5714518229166</c:v>
+                  <c:v>21.9704996744791</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.7640787760416</c:v>
+                  <c:v>20.9932250976562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.9746907552083</c:v>
+                  <c:v>21.4789835611979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.2255045572916</c:v>
+                  <c:v>21.7834269205729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.5962727864583</c:v>
+                  <c:v>21.5111287434895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.7105305989583</c:v>
+                  <c:v>21.1901245117187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.6283365885416</c:v>
+                  <c:v>21.7674967447916</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.348388671875</c:v>
+                  <c:v>20.941162109375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.7162272135416</c:v>
+                  <c:v>22.1643880208333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.2242024739583</c:v>
+                  <c:v>20.4872843424479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,6 +3204,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47068094714922093"/>
+              <c:y val="0.89338069035502987"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2787,7 +3286,7 @@
         <c:axId val="1973630640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2832,6 +3331,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.8324278066386815E-3"/>
+              <c:y val="0.41136962615211059"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3001,7 +3508,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10928211805555556"/>
+          <c:y val="2.7718253968253968E-2"/>
+          <c:w val="0.85641024305555558"/>
+          <c:h val="0.81402718253968265"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3010,7 +3527,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$I$2</c:f>
+              <c:f>'c1b (3)'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3045,7 +3562,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3105,60 +3622,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$I$3:$I$19</c:f>
+              <c:f>'c1b (3)'!$I$3:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>80.2437337239583</c:v>
+                  <c:v>82.315612792968693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.8577473958333</c:v>
+                  <c:v>81.005798339843693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.80224609375</c:v>
+                  <c:v>86.841532389322893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.3485514322916</c:v>
+                  <c:v>83.0830078125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.1443684895833</c:v>
+                  <c:v>78.198465983072893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.2413736979166</c:v>
+                  <c:v>80.482198079426993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.971354166666</c:v>
+                  <c:v>81.122334798176993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.6659342447916</c:v>
+                  <c:v>80.4724527994791</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.22509765625</c:v>
+                  <c:v>79.252421061197893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.8236490885416</c:v>
+                  <c:v>82.529683430989493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.8968098958333</c:v>
+                  <c:v>83.2264404296875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104.021240234375</c:v>
+                  <c:v>79.493306477864493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.5440266927083</c:v>
+                  <c:v>78.930887858072893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.8479817708333</c:v>
+                  <c:v>82.708597819010393</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109.045817057291</c:v>
+                  <c:v>78.39013671875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.8098958333333</c:v>
+                  <c:v>82.6033528645833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.286865234375</c:v>
+                  <c:v>77.791320800781193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$J$2</c:f>
+              <c:f>'c1b (3)'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3210,7 +3727,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3270,60 +3787,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$J$3:$J$19</c:f>
+              <c:f>'c1b (3)'!$J$3:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>83.6505533854166</c:v>
+                  <c:v>79.865234375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.239013671875</c:v>
+                  <c:v>80.094868977864493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.7069498697916</c:v>
+                  <c:v>81.474222819010393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.8616536458333</c:v>
+                  <c:v>77.487854003906193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.445068359375</c:v>
+                  <c:v>75.2109375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.03955078125</c:v>
+                  <c:v>75.4902750651041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103.976318359375</c:v>
+                  <c:v>76.271626790364493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.5186360677083</c:v>
+                  <c:v>79.4281819661458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.0738932291666</c:v>
+                  <c:v>78.0015055338541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.6006673177083</c:v>
+                  <c:v>76.3723958333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98.518310546875</c:v>
+                  <c:v>77.9609375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100.480061848958</c:v>
+                  <c:v>77.428446451822893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.4364420572916</c:v>
+                  <c:v>76.800638834635393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100.490885416666</c:v>
+                  <c:v>78.6217447916666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>108.407633463541</c:v>
+                  <c:v>76.970682779947893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.10400390625</c:v>
+                  <c:v>77.562154134114493</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.407389322916</c:v>
+                  <c:v>72.2110595703125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,7 +3857,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$K$2</c:f>
+              <c:f>'c1b (3)'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3375,7 +3892,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3435,60 +3952,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$K$3:$K$19</c:f>
+              <c:f>'c1b (3)'!$K$3:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>84.0450032552083</c:v>
+                  <c:v>80.2223714192708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.4765625</c:v>
+                  <c:v>80.2083740234375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.1739908854166</c:v>
+                  <c:v>80.207743326822893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.5997721354166</c:v>
+                  <c:v>75.865498860676993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.58837890625</c:v>
+                  <c:v>74.735412597656193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.8086751302083</c:v>
+                  <c:v>75.029968261718693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.997965494791</c:v>
+                  <c:v>75.7460530598958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.4064127604166</c:v>
+                  <c:v>79.582743326822893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.7096354166666</c:v>
+                  <c:v>77.8133138020833</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.58056640625</c:v>
+                  <c:v>75.3782958984375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.827473958333</c:v>
+                  <c:v>77.840026855468693</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102.781005859375</c:v>
+                  <c:v>77.8242594401041</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.8959147135416</c:v>
+                  <c:v>76.7611897786458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.317220052083</c:v>
+                  <c:v>78.9710693359375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>108.330810546875</c:v>
+                  <c:v>76.1253255208333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.2855631510416</c:v>
+                  <c:v>76.132548014322893</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107.796468098958</c:v>
+                  <c:v>70.9912516276041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,7 +4022,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'c1b (2)'!$L$2</c:f>
+              <c:f>'c1b (3)'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3547,7 +4064,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3607,60 +4124,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c1b (2)'!$L$3:$L$19</c:f>
+              <c:f>'c1b (3)'!$L$3:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>76.376220703125</c:v>
+                  <c:v>74.639261881510393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.3119303385416</c:v>
+                  <c:v>74.449035644531193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.3055013020833</c:v>
+                  <c:v>76.039082845051993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.1988932291666</c:v>
+                  <c:v>72.916748046875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.0533854166666</c:v>
+                  <c:v>69.468037923176993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.0166829427083</c:v>
+                  <c:v>70.368876139322893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.9047037760416</c:v>
+                  <c:v>71.0454915364583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.1419270833333</c:v>
+                  <c:v>72.7983805338541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.2618001302083</c:v>
+                  <c:v>72.2139485677083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.4873860677083</c:v>
+                  <c:v>71.1805419921875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.4058430989583</c:v>
+                  <c:v>72.5384928385416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.23095703125</c:v>
+                  <c:v>71.2847086588541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79.5298665364583</c:v>
+                  <c:v>70.6692708333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.73828125</c:v>
+                  <c:v>72.806294759114493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.551106770833</c:v>
+                  <c:v>70.4989827473958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.557861328125</c:v>
+                  <c:v>71.129292805989493</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.408447265625</c:v>
+                  <c:v>67.103535970051993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,6 +4202,540 @@
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1309493279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>近似積極度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48126319444444438"/>
+              <c:y val="0.88760218253968259"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309495679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1309495679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>MSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.40445595238095239"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309493279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c1b (3)'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC積（単位：兆）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'c1b (3)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'c1b (3)'!$U$3:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.8473202423443364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6603264789046293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6963575852031987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1229230926295468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4822534016396176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4137075939522408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3382536252405703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4144750280907186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1531886520762011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7793181515282503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8254784949086433</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4940929336689672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2681115162330956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3436541107737767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9388958126269689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8552325052212515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2880684911140623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1757-4EF4-860E-42E76BF0BD16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113425344"/>
+        <c:axId val="113381888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113425344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -3797,16 +4848,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1309495679"/>
+        <c:crossAx val="113381888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1309495679"/>
+        <c:axId val="113381888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="60"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3845,9 +4895,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>MSE</a:t>
+                  <a:t>EC</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>積（単位：兆）</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3876,381 +4929,10 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1309493279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'c1b (2)'!$V$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>*Gray_MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'c1b (2)'!$A$3:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'c1b (2)'!$V$3:$V$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>72.1105143229166</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.180399226256313</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.569819015709101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.410728726533335</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.319396058621912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.636008344218027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.125608362079205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.153116020740526</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.791223044769339</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.285992388815615</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.878860056772169</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.641436300009886</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60.826913428508327</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.056279400880371</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74.679155311492792</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>62.641529825628183</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.024244252712748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CBD-4F8E-B064-2DA16857A86D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1141061055"/>
-        <c:axId val="1141062015"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1141061055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4288,69 +4970,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141062015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1141062015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1141061055"/>
+        <c:crossAx val="113425344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4422,7 +5042,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10707725694444445"/>
+          <c:y val="2.7718253968253968E-2"/>
+          <c:w val="0.85861510416666686"/>
+          <c:h val="0.81906686507936521"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4431,7 +5061,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$E$2</c:f>
+              <c:f>'wc (3)'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4466,7 +5096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4526,60 +5156,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$E$3:$E$19</c:f>
+              <c:f>'wc (3)'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>163.175537109375</c:v>
+                  <c:v>197.71902465820301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.68267822265599</c:v>
+                  <c:v>183.02407836914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.23651123046801</c:v>
+                  <c:v>209.72233581542901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161.749267578125</c:v>
+                  <c:v>185.69998168945301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.48937988281199</c:v>
+                  <c:v>185.11630249023401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159.69586181640599</c:v>
+                  <c:v>183.82469177246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172.65655517578099</c:v>
+                  <c:v>182.364486694335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166.33825683593699</c:v>
+                  <c:v>226.78192138671801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.072998046875</c:v>
+                  <c:v>185.31710815429599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164.68743896484301</c:v>
+                  <c:v>190.94786071777301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>164.63055419921801</c:v>
+                  <c:v>240.42332458496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170.93756103515599</c:v>
+                  <c:v>189.07995605468699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174.36022949218699</c:v>
+                  <c:v>200.052963256835</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175.415283203125</c:v>
+                  <c:v>185.87821960449199</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>174.197509765625</c:v>
+                  <c:v>203.345123291015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>178.13342285156199</c:v>
+                  <c:v>210.058334350585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163.62341308593699</c:v>
+                  <c:v>190.58819580078099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4587,7 +5217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6CBF-4BBB-8F38-9BB7EE8EC365}"/>
+              <c16:uniqueId val="{00000000-B6B6-4D3F-8436-11755C3340E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4596,7 +5226,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$F$2</c:f>
+              <c:f>'wc (3)'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4631,7 +5261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4691,60 +5321,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$F$3:$F$19</c:f>
+              <c:f>'wc (3)'!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>128.95037841796801</c:v>
+                  <c:v>154.49092102050699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.908935546875</c:v>
+                  <c:v>140.25965881347599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.71917724609301</c:v>
+                  <c:v>173.27703857421801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.727416992187</c:v>
+                  <c:v>142.22062683105401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.55316162109301</c:v>
+                  <c:v>142.40425109863199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.227172851562</c:v>
+                  <c:v>140.57666015625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.777587890625</c:v>
+                  <c:v>139.49945068359301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132.306884765625</c:v>
+                  <c:v>191.27282714843699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133.50134277343699</c:v>
+                  <c:v>143.25274658203099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131.54010009765599</c:v>
+                  <c:v>148.05194091796801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129.99462890625</c:v>
+                  <c:v>204.30532836914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>136.389892578125</c:v>
+                  <c:v>146.37785339355401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138.97393798828099</c:v>
+                  <c:v>156.498443603515</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.36730957031199</c:v>
+                  <c:v>140.84634399414</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139.96087646484301</c:v>
+                  <c:v>158.94956970214801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>143.427490234375</c:v>
+                  <c:v>165.20170593261699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>126.095458984375</c:v>
+                  <c:v>143.42663574218699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,7 +5382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6CBF-4BBB-8F38-9BB7EE8EC365}"/>
+              <c16:uniqueId val="{00000001-B6B6-4D3F-8436-11755C3340E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4761,7 +5391,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$G$2</c:f>
+              <c:f>'wc (3)'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4796,7 +5426,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4856,60 +5486,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$G$3:$G$19</c:f>
+              <c:f>'wc (3)'!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>95.813293457031193</c:v>
+                  <c:v>107.02279663085901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.1014404296875</c:v>
+                  <c:v>97.590759277343693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.4327392578125</c:v>
+                  <c:v>130.09025573730401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.494689941406193</c:v>
+                  <c:v>98.877349853515597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.221435546875</c:v>
+                  <c:v>98.899917602539006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.318603515625</c:v>
+                  <c:v>97.295501708984304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.343933105468</c:v>
+                  <c:v>95.845016479492102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.369384765625</c:v>
+                  <c:v>144.07762145996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.081726074218693</c:v>
+                  <c:v>99.214950561523395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.792907714843693</c:v>
+                  <c:v>101.72906494140599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96.929992675781193</c:v>
+                  <c:v>153.11991882324199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100.300415039062</c:v>
+                  <c:v>101.655136108398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.244812011718</c:v>
+                  <c:v>107.57037353515599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102.459411621093</c:v>
+                  <c:v>94.546981811523395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.065612792968</c:v>
+                  <c:v>108.906814575195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.154052734375</c:v>
+                  <c:v>113.370956420898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89.925048828125</c:v>
+                  <c:v>95.694625854492102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4917,7 +5547,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6CBF-4BBB-8F38-9BB7EE8EC365}"/>
+              <c16:uniqueId val="{00000002-B6B6-4D3F-8436-11755C3340E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4926,11 +5556,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$H$2</c:f>
+              <c:f>'wc (3)'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gray</c:v>
+                  <c:v>MSE_Gray</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4970,7 +5600,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5030,60 +5660,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$H$3:$H$19</c:f>
+              <c:f>'wc (3)'!$H$3:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>132.40936279296801</c:v>
+                  <c:v>158.43395996093699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.85968017578099</c:v>
+                  <c:v>144.81236267089801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.92370605468699</c:v>
+                  <c:v>175.7119140625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.24261474609301</c:v>
+                  <c:v>146.727294921875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.8193359375</c:v>
+                  <c:v>146.75888061523401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.69427490234301</c:v>
+                  <c:v>145.09883117675699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.869140625</c:v>
+                  <c:v>143.81706237792901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.650634765625</c:v>
+                  <c:v>192.77900695800699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.81494140625</c:v>
+                  <c:v>147.23951721191401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.36663818359301</c:v>
+                  <c:v>151.99940490722599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.52386474609301</c:v>
+                  <c:v>205.33857727050699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>139.60974121093699</c:v>
+                  <c:v>150.36227416992099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142.02685546875</c:v>
+                  <c:v>160.17233276367099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>143.22692871093699</c:v>
+                  <c:v>145.14207458496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>142.47100830078099</c:v>
+                  <c:v>162.56137084960901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>146.01892089843699</c:v>
+                  <c:v>168.57577514648401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129.53259277343699</c:v>
+                  <c:v>147.79911804199199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,7 +5721,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6CBF-4BBB-8F38-9BB7EE8EC365}"/>
+              <c16:uniqueId val="{00000003-B6B6-4D3F-8436-11755C3340E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5154,6 +5784,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47464861111111112"/>
+              <c:y val="0.88760218253968259"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5228,8 +5866,8 @@
         <c:axId val="1309495679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="180"/>
-          <c:min val="80"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5274,6 +5912,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.39311666666666667"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5343,6 +5989,7 @@
         <c:crossAx val="1309493279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5443,7 +6090,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10984427083333335"/>
+          <c:y val="2.791166965529987E-2"/>
+          <c:w val="0.79290885416666668"/>
+          <c:h val="0.83281746031746029"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5452,11 +6109,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$D$2</c:f>
+              <c:f>'wc (3)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>億</c:v>
+                  <c:v>サイクル数（単位：億）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5487,7 +6144,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5547,7 +6204,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$D$3:$D$19</c:f>
+              <c:f>'wc (3)'!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5608,7 +6265,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95C8-4DDF-BDE0-1A4B01099B5C}"/>
+              <c16:uniqueId val="{00000000-552C-48F2-9106-52458A8391F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5620,11 +6277,199 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1318525951"/>
-        <c:axId val="1318526911"/>
+        <c:axId val="1343367903"/>
+        <c:axId val="1343368383"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wc (3)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE_Gray</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'wc (3)'!$H$3:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>158.43395996093699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.81236267089801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.7119140625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.727294921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.75888061523401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145.09883117675699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.81706237792901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192.77900695800699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147.23951721191401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.99940490722599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205.33857727050699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150.36227416992099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160.17233276367099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145.14207458496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162.56137084960901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.57577514648401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.79911804199199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-552C-48F2-9106-52458A8391F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="854240256"/>
+        <c:axId val="854237856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1318525951"/>
+        <c:axId val="1343367903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5671,6 +6516,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44555989583333333"/>
+              <c:y val="0.90036448412698411"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5737,12 +6590,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318526911"/>
+        <c:crossAx val="1343368383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1318526911"/>
+        <c:axId val="1343368383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
@@ -5785,11 +6638,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>サイクル数　（単位：億）</a:t>
+                  <a:t>サイクル数（単位：億）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.29202219746956837"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5856,10 +6717,130 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318525951"/>
+        <c:crossAx val="1343367903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="250"/>
+        <c:majorUnit val="300"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="854237856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>MSE_Gray</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854240256"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="854240256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="854237856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5869,6 +6850,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5929,7 +6941,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9374027759207867E-2"/>
+          <c:y val="2.7527500406409947E-2"/>
+          <c:w val="0.86626782807296765"/>
+          <c:h val="0.82531702438952304"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5938,7 +6960,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$N$2</c:f>
+              <c:f>'wc (3)'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5973,7 +6995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6033,60 +7055,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$N$3:$N$19</c:f>
+              <c:f>'wc (3)'!$N$3:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>132.55725097656199</c:v>
+                  <c:v>158.38368225097599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.955078125</c:v>
+                  <c:v>144.807525634765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.814697265625</c:v>
+                  <c:v>175.62821960449199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.411865234375</c:v>
+                  <c:v>146.76354980468699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.92718505859301</c:v>
+                  <c:v>146.68316650390599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.689453125</c:v>
+                  <c:v>145.03840637207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.82525634765599</c:v>
+                  <c:v>143.76286315917901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.583251953125</c:v>
+                  <c:v>192.77618408203099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.03643798828099</c:v>
+                  <c:v>147.30299377441401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.42883300781199</c:v>
+                  <c:v>151.98654174804599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.609375</c:v>
+                  <c:v>205.34989929199199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>139.37908935546801</c:v>
+                  <c:v>150.37359619140599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142.064697265625</c:v>
+                  <c:v>160.189041137695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>143.41400146484301</c:v>
+                  <c:v>145.09376525878901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>142.68408203125</c:v>
+                  <c:v>162.55802917480401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>146.000244140625</c:v>
+                  <c:v>168.63545227050699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129.65832519531199</c:v>
+                  <c:v>147.82711791992099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,7 +7116,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E15A-4B64-AAAB-0DB6B134E8F2}"/>
+              <c16:uniqueId val="{00000000-F388-4723-AF3C-5C328566B53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6103,7 +7125,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$O$2</c:f>
+              <c:f>'wc (3)'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6138,7 +7160,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6198,60 +7220,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$O$3:$O$19</c:f>
+              <c:f>'wc (3)'!$O$3:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.4503173828125</c:v>
+                  <c:v>4.25360107421875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4451904296875</c:v>
+                  <c:v>3.9565582275390598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.48681640625</c:v>
+                  <c:v>4.2833099365234304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.41387939453125</c:v>
+                  <c:v>4.1031188964843697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.49285888671875</c:v>
+                  <c:v>4.0734405517578098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.41192626953125</c:v>
+                  <c:v>4.0769805908203098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.79071044921875</c:v>
+                  <c:v>4.1408538818359304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.439697265625</c:v>
+                  <c:v>4.52520751953125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5311279296875</c:v>
+                  <c:v>4.1153564453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6142578125</c:v>
+                  <c:v>4.2356109619140598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5811767578125</c:v>
+                  <c:v>4.8228302001953098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.68603515625</c:v>
+                  <c:v>4.2377777099609304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.86163330078125</c:v>
+                  <c:v>4.5331268310546804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.80078125</c:v>
+                  <c:v>4.5857696533203098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.95819091796875</c:v>
+                  <c:v>4.6417236328125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.96453857421875</c:v>
+                  <c:v>4.8383941650390598</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.302490234375</c:v>
+                  <c:v>4.8937683105468697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,7 +7281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E15A-4B64-AAAB-0DB6B134E8F2}"/>
+              <c16:uniqueId val="{00000001-F388-4723-AF3C-5C328566B53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6268,7 +7290,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$P$2</c:f>
+              <c:f>'wc (3)'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6303,7 +7325,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6363,60 +7385,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$P$3:$P$19</c:f>
+              <c:f>'wc (3)'!$P$3:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.323974609375</c:v>
+                  <c:v>2.88194274902343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.36907958984375</c:v>
+                  <c:v>2.7149200439453098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.32696533203125</c:v>
+                  <c:v>2.82902526855468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.32769775390625</c:v>
+                  <c:v>2.8701477050781201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.34027099609375</c:v>
+                  <c:v>2.81536865234375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.30535888671875</c:v>
+                  <c:v>2.84977722167968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.56134033203125</c:v>
+                  <c:v>2.8690338134765598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.36920166015625</c:v>
+                  <c:v>2.91748046875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4202880859375</c:v>
+                  <c:v>2.82574462890625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.41326904296875</c:v>
+                  <c:v>2.8892364501953098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.46826171875</c:v>
+                  <c:v>3.0720520019531201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.48480224609375</c:v>
+                  <c:v>2.9340515136718701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.57501220703125</c:v>
+                  <c:v>3.01373291015625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5599365234375</c:v>
+                  <c:v>3.1445007324218701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.59722900390625</c:v>
+                  <c:v>3.1582794189453098</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.63763427734375</c:v>
+                  <c:v>3.2617492675781201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.89959716796875</c:v>
+                  <c:v>3.4425048828125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6424,7 +7446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E15A-4B64-AAAB-0DB6B134E8F2}"/>
+              <c16:uniqueId val="{00000002-F388-4723-AF3C-5C328566B53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6436,11 +7458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2057255600"/>
-        <c:axId val="2057259920"/>
+        <c:axId val="1497968752"/>
+        <c:axId val="1973630640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2057255600"/>
+        <c:axId val="1497968752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -6487,6 +7509,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47068094714922093"/>
+              <c:y val="0.89338069035502987"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6553,14 +7583,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057259920"/>
+        <c:crossAx val="1973630640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2057259920"/>
+        <c:axId val="1973630640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6605,6 +7637,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.8324278066386815E-3"/>
+              <c:y val="0.41136962615211059"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6671,9 +7711,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057255600"/>
+        <c:crossAx val="1497968752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6774,7 +7815,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10928211805555556"/>
+          <c:y val="2.7718253968253968E-2"/>
+          <c:w val="0.85641024305555558"/>
+          <c:h val="0.81402718253968265"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -6783,7 +7834,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$I$2</c:f>
+              <c:f>'wc (3)'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6818,7 +7869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6878,60 +7929,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$I$3:$I$19</c:f>
+              <c:f>'wc (3)'!$I$3:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>144.028564453125</c:v>
+                  <c:v>169.86648559570301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.24542236328099</c:v>
+                  <c:v>156.33923339843699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145.12548828125</c:v>
+                  <c:v>185.68009948730401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.22082519531199</c:v>
+                  <c:v>157.70587158203099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.45159912109301</c:v>
+                  <c:v>157.92561340332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.57421875</c:v>
+                  <c:v>156.25889587402301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.68975830078099</c:v>
+                  <c:v>155.24591064453099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148.60247802734301</c:v>
+                  <c:v>203.12535095214801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.77307128906199</c:v>
+                  <c:v>159.48196411132801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147.04235839843699</c:v>
+                  <c:v>164.60533142089801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>146.17657470703099</c:v>
+                  <c:v>216.668853759765</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152.63616943359301</c:v>
+                  <c:v>162.88204956054599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>154.91784667968699</c:v>
+                  <c:v>173.81083679199199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.25939941406199</c:v>
+                  <c:v>158.75769042968699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156.01275634765599</c:v>
+                  <c:v>176.761474609375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159.76220703125</c:v>
+                  <c:v>183.096923828125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>142.67199707031199</c:v>
+                  <c:v>162.22735595703099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6939,7 +7990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1656-4E9A-9D15-1C7030F84E79}"/>
+              <c16:uniqueId val="{00000000-F3D9-49E3-BD04-805196079F9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6948,7 +7999,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$J$2</c:f>
+              <c:f>'wc (3)'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6983,7 +8034,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7043,60 +8094,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$J$3:$J$19</c:f>
+              <c:f>'wc (3)'!$J$3:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>140.91943359375</c:v>
+                  <c:v>167.081619262695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.79998779296801</c:v>
+                  <c:v>152.71853637695301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.3740234375</c:v>
+                  <c:v>185.75874328613199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.25482177734301</c:v>
+                  <c:v>154.76939392089801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.02655029296801</c:v>
+                  <c:v>155.49610900878901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138.24505615234301</c:v>
+                  <c:v>153.184814453125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.40399169921801</c:v>
+                  <c:v>151.81632995605401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144.55609130859301</c:v>
+                  <c:v>203.294021606445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>144.76483154296801</c:v>
+                  <c:v>156.12893676757801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>143.28729248046801</c:v>
+                  <c:v>160.58502197265599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141.60119628906199</c:v>
+                  <c:v>216.47518920898401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>148.40399169921801</c:v>
+                  <c:v>158.74493408203099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150.94470214843699</c:v>
+                  <c:v>169.04852294921801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>152.43170166015599</c:v>
+                  <c:v>153.34828186035099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>152.15344238281199</c:v>
+                  <c:v>171.62171936035099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>155.37677001953099</c:v>
+                  <c:v>177.68373107910099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.95654296875</c:v>
+                  <c:v>155.91003417968699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7104,7 +8155,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1656-4E9A-9D15-1C7030F84E79}"/>
+              <c16:uniqueId val="{00000001-F3D9-49E3-BD04-805196079F9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7113,7 +8164,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$K$2</c:f>
+              <c:f>'wc (3)'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7148,7 +8199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7208,60 +8259,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$K$3:$K$19</c:f>
+              <c:f>'wc (3)'!$K$3:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>139.46331787109301</c:v>
+                  <c:v>161.08837890625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.10369873046801</c:v>
+                  <c:v>149.99026489257801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.727294921875</c:v>
+                  <c:v>179.01705932617099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.862060546875</c:v>
+                  <c:v>152.13182067871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140.397705078125</c:v>
+                  <c:v>152.21208190917901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.46240234375</c:v>
+                  <c:v>149.98489379882801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.795166015625</c:v>
+                  <c:v>149.119216918945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142.7001953125</c:v>
+                  <c:v>191.66053771972599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141.99371337890599</c:v>
+                  <c:v>150.81675720214801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>138.80413818359301</c:v>
+                  <c:v>153.351303100585</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138.59674072265599</c:v>
+                  <c:v>200.62521362304599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>143.14813232421801</c:v>
+                  <c:v>151.52386474609301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>145.44256591796801</c:v>
+                  <c:v>158.80554199218699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>145.352783203125</c:v>
+                  <c:v>147.11474609375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144.55419921875</c:v>
+                  <c:v>159.84521484375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>146.537353515625</c:v>
+                  <c:v>163.726806640625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>135.981689453125</c:v>
+                  <c:v>147.86560058593699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7269,7 +8320,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1656-4E9A-9D15-1C7030F84E79}"/>
+              <c16:uniqueId val="{00000002-F3D9-49E3-BD04-805196079F9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7278,7 +8329,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'wc (2)'!$L$2</c:f>
+              <c:f>'wc (3)'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7290,9 +8341,8 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="bg1">
                   <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7311,9 +8361,8 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="bg1">
                     <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -7322,7 +8371,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'wc (2)'!$A$3:$A$19</c:f>
+              <c:f>'wc (3)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -7382,60 +8431,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'wc (2)'!$L$3:$L$19</c:f>
+              <c:f>'wc (3)'!$L$3:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>140.31604003906199</c:v>
+                  <c:v>165.84109497070301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.227294921875</c:v>
+                  <c:v>152.25134277343699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.40179443359301</c:v>
+                  <c:v>183.35836791992099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.48693847656199</c:v>
+                  <c:v>154.02436828613199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.33966064453099</c:v>
+                  <c:v>154.54875183105401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.45745849609301</c:v>
+                  <c:v>152.38803100585901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148.16925048828099</c:v>
+                  <c:v>151.16897583007801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143.97149658203099</c:v>
+                  <c:v>200.16746520996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>144.2041015625</c:v>
+                  <c:v>155.11021423339801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142.30242919921801</c:v>
+                  <c:v>159.46685791015599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141.058349609375</c:v>
+                  <c:v>212.68962097167901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147.45373535156199</c:v>
+                  <c:v>157.58900451660099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>149.81793212890599</c:v>
+                  <c:v>167.58076477050699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>151.08807373046801</c:v>
+                  <c:v>152.44465637207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.60925292968699</c:v>
+                  <c:v>169.95103454589801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>153.94342041015599</c:v>
+                  <c:v>175.69958496093699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.08013916015599</c:v>
+                  <c:v>154.889404296875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7443,7 +8492,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1656-4E9A-9D15-1C7030F84E79}"/>
+              <c16:uniqueId val="{00000003-F3D9-49E3-BD04-805196079F9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7506,6 +8555,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48126319444444438"/>
+              <c:y val="0.88760218253968259"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7580,8 +8637,8 @@
         <c:axId val="1309495679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="180"/>
-          <c:min val="80"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7626,6 +8683,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.819444444444444E-3"/>
+              <c:y val="0.40445595238095239"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7695,6 +8760,7 @@
         <c:crossAx val="1309493279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13343,16 +14409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>669922</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>113505</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238672</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>320314</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>41755</xdr:rowOff>
+      <xdr:rowOff>132924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13382,15 +14448,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
+      <xdr:colOff>176208</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>73819</xdr:rowOff>
+      <xdr:rowOff>73817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>538711</xdr:colOff>
+      <xdr:colOff>545058</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>189394</xdr:rowOff>
+      <xdr:rowOff>189392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13419,16 +14485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>207168</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65107</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>135418</xdr:rowOff>
+      <xdr:colOff>622320</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>27996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13455,16 +14521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>195792</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129266</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>542416</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>124042</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>402866</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13493,23 +14559,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12170</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>89958</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88370</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>526013</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058D4EDA-D70D-A18B-8881-5F5C19624E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A5B955-3E7C-C5AA-620D-E5C9594278B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13534,23 +14600,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>414335</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2381</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84814</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2135</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>117956</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>358414</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>204362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11B2FE4-14F4-45B5-BED5-7ACAC45F5EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4789A602-4B6B-4F6D-80F0-1DAACA85288F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13573,22 +14639,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:colOff>176208</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83099</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>137006</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545058</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>189392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C99FE91-AE69-4C8D-8087-39CA6B243D70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63883E15-A7F0-456B-BE65-4A743A88B9D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13610,27 +14676,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>449812</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>127480</xdr:rowOff>
+      <xdr:colOff>622320</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>27996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9DE6EE-1583-C943-B133-4D999978B208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18B9422-F3EE-462B-BB42-163439F206C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13646,23 +14714,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>253091</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>210080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>526691</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>115575</xdr:rowOff>
+      <xdr:rowOff>101817</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
+        <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D82B3-D98D-4EA3-A1A7-E1608DB8295F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2A73F6-FA7C-459E-8322-4F3F0A0AC964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13684,27 +14752,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>64293</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>526013</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F004CFC6-943C-3C1A-BECB-00DAC15963DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48638171-D3C9-427D-8274-7DE8DD06B96B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13984,10 +15054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC53CF9-F476-46BF-844B-A201D5CD8083}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -13998,40 +15068,37 @@
     <col min="4" max="4" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
       <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14042,7 +15109,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -14069,1002 +15136,931 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" s="2">
         <f>MAX(E3:L19)</f>
-        <v>119.132893880208</v>
+        <v>102.265563964843</v>
       </c>
       <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>3332229593</v>
+      <c r="B3" s="4">
+        <v>4345103632</v>
       </c>
       <c r="C3">
         <f>16*B$3+16*B3</f>
-        <v>106631346976</v>
+        <v>139043316224</v>
       </c>
       <c r="D3" s="3">
         <f>C3/(10^8)</f>
-        <v>1066.3134697600001</v>
+        <v>1390.43316224</v>
       </c>
       <c r="E3" s="2">
-        <v>90.215087890625</v>
+        <v>96.6223551432291</v>
       </c>
       <c r="F3" s="2">
-        <v>90.742919921875</v>
+        <v>87.2761637369791</v>
       </c>
       <c r="G3" s="2">
-        <v>85.8946126302083</v>
+        <v>82.816752115885393</v>
       </c>
       <c r="H3" s="2">
-        <v>72.1105143229166</v>
+        <v>70.821960449218693</v>
       </c>
       <c r="I3" s="2">
-        <v>80.2437337239583</v>
+        <v>82.315612792968693</v>
       </c>
       <c r="J3" s="2">
-        <v>83.6505533854166</v>
+        <v>79.865234375</v>
       </c>
       <c r="K3" s="2">
-        <v>84.0450032552083</v>
+        <v>80.2223714192708</v>
       </c>
       <c r="L3" s="2">
-        <v>76.376220703125</v>
+        <v>74.639261881510393</v>
       </c>
       <c r="N3" s="2">
-        <v>72.1503092447916</v>
+        <v>70.8827718098958</v>
       </c>
       <c r="O3" s="2">
-        <v>4.8170572916666599</v>
+        <v>4.9231770833333304</v>
       </c>
       <c r="P3" s="2">
-        <v>20.535400390625</v>
+        <v>21.3431599934895</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="2">
         <f>MIN(E3:L19)</f>
-        <v>64.2982584635416</v>
+        <v>63.8853759765625</v>
       </c>
       <c r="U3">
-        <f>D3/D$3</f>
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <f>H3*U3</f>
-        <v>72.1105143229166</v>
+        <f>D3*H3/10000</f>
+        <v>9.8473202423443364</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>3231093140</v>
+      <c r="B4" s="4">
+        <v>4186447528</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C10" si="0">16*B$3+16*B4</f>
-        <v>105013163728</v>
+        <v>136504818560</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D19" si="1">C4/(10^8)</f>
-        <v>1050.1316372799999</v>
+        <v>1365.0481855999999</v>
       </c>
       <c r="E4" s="2">
-        <v>91.6280924479166</v>
+        <v>95.249654134114493</v>
       </c>
       <c r="F4" s="2">
-        <v>81.220947265625</v>
+        <v>87.700052897135393</v>
       </c>
       <c r="G4" s="2">
-        <v>78.2611490885416</v>
+        <v>83.173482259114493</v>
       </c>
       <c r="H4" s="2">
-        <v>67.2001953125</v>
+        <v>70.7691243489583</v>
       </c>
       <c r="I4" s="2">
-        <v>78.8577473958333</v>
+        <v>81.005798339843693</v>
       </c>
       <c r="J4" s="2">
-        <v>76.239013671875</v>
+        <v>80.094868977864493</v>
       </c>
       <c r="K4" s="2">
-        <v>77.4765625</v>
+        <v>80.2083740234375</v>
       </c>
       <c r="L4" s="2">
-        <v>71.3119303385416</v>
+        <v>74.449035644531193</v>
       </c>
       <c r="N4" s="2">
-        <v>67.3687337239583</v>
+        <v>70.7947184244791</v>
       </c>
       <c r="O4" s="2">
-        <v>4.494873046875</v>
+        <v>4.7752888997395804</v>
       </c>
       <c r="P4" s="2">
-        <v>19.080322265625</v>
+        <v>21.3474731445312</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U19" si="2">D4/D$3</f>
-        <v>0.98482450710892522</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V19" si="3">H4*U4</f>
-        <v>66.180399226256313</v>
+        <f t="shared" ref="U4:U18" si="2">D4*H4/10000</f>
+        <v>9.6603264789046293</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3131747642</v>
+      <c r="B5" s="4">
+        <v>4027791424</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>103423635760</v>
+        <v>133966320896</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>1034.2363576</v>
+        <v>1339.66320896</v>
       </c>
       <c r="E5" s="2">
-        <v>95.212158203125</v>
+        <v>102.265563964843</v>
       </c>
       <c r="F5" s="2">
-        <v>99.5545247395833</v>
+        <v>89.1708170572916</v>
       </c>
       <c r="G5" s="2">
-        <v>93.850341796875</v>
+        <v>83.1320393880208</v>
       </c>
       <c r="H5" s="2">
-        <v>79.9756673177083</v>
+        <v>72.3790690104166</v>
       </c>
       <c r="I5" s="2">
-        <v>87.80224609375</v>
+        <v>86.841532389322893</v>
       </c>
       <c r="J5" s="2">
-        <v>91.7069498697916</v>
+        <v>81.474222819010393</v>
       </c>
       <c r="K5" s="2">
-        <v>93.1739908854166</v>
+        <v>80.207743326822893</v>
       </c>
       <c r="L5" s="2">
-        <v>84.3055013020833</v>
+        <v>76.039082845051993</v>
       </c>
       <c r="N5" s="2">
-        <v>80.0321451822916</v>
+        <v>72.376810709635393</v>
       </c>
       <c r="O5" s="2">
-        <v>4.4336751302083304</v>
+        <v>5.1771240234375</v>
       </c>
       <c r="P5" s="2">
-        <v>20.1654459635416</v>
+        <v>22.8896077473958</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>0.96991774645103213</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="3"/>
-        <v>77.569819015709101</v>
+        <v>9.6963575852031987</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>3024619763</v>
+      <c r="B6" s="4">
+        <v>3869135320</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>101709589696</v>
+        <v>131427823232</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>1017.09589696</v>
+        <v>1314.2782323199999</v>
       </c>
       <c r="E6" s="2">
-        <v>97.4973958333333</v>
+        <v>98.49072265625</v>
       </c>
       <c r="F6" s="2">
-        <v>101.527180989583</v>
+        <v>84.6866861979166</v>
       </c>
       <c r="G6" s="2">
-        <v>98.3207194010416</v>
+        <v>78.5652262369791</v>
       </c>
       <c r="H6" s="2">
-        <v>81.1566569010416</v>
+        <v>69.4139404296875</v>
       </c>
       <c r="I6" s="2">
-        <v>88.3485514322916</v>
+        <v>83.0830078125</v>
       </c>
       <c r="J6" s="2">
-        <v>93.8616536458333</v>
+        <v>77.487854003906193</v>
       </c>
       <c r="K6" s="2">
-        <v>97.5997721354166</v>
+        <v>75.865498860676993</v>
       </c>
       <c r="L6" s="2">
-        <v>85.1988932291666</v>
+        <v>72.916748046875</v>
       </c>
       <c r="N6" s="2">
-        <v>81.3482259114583</v>
+        <v>69.4333089192708</v>
       </c>
       <c r="O6" s="2">
-        <v>5.0150553385416599</v>
+        <v>4.8164265950520804</v>
       </c>
       <c r="P6" s="2">
-        <v>21.431884765625</v>
+        <v>21.3824666341145</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>0.95384324197735426</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="3"/>
-        <v>77.410728726533335</v>
+        <v>9.1229230926295468</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2919823927</v>
+      <c r="B7" s="4">
+        <v>3710479216</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>100032856320</v>
+        <v>128889325568</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>1000.3285632</v>
+        <v>1288.89325568</v>
       </c>
       <c r="E7" s="2">
-        <v>88.1527506510416</v>
+        <v>92.495707194010393</v>
       </c>
       <c r="F7" s="2">
-        <v>79.6979166666666</v>
+        <v>82.412984212239493</v>
       </c>
       <c r="G7" s="2">
-        <v>75.7950032552083</v>
+        <v>78.068013509114493</v>
       </c>
       <c r="H7" s="2">
-        <v>64.2982584635416</v>
+        <v>65.810363769531193</v>
       </c>
       <c r="I7" s="2">
-        <v>79.1443684895833</v>
+        <v>78.198465983072893</v>
       </c>
       <c r="J7" s="2">
-        <v>72.445068359375</v>
+        <v>75.2109375</v>
       </c>
       <c r="K7" s="2">
-        <v>73.58837890625</v>
+        <v>74.735412597656193</v>
       </c>
       <c r="L7" s="2">
-        <v>68.0533854166666</v>
+        <v>69.468037923176993</v>
       </c>
       <c r="N7" s="2">
-        <v>64.3153483072916</v>
+        <v>65.7651774088541</v>
       </c>
       <c r="O7" s="2">
-        <v>4.544921875</v>
+        <v>5.08587646484375</v>
       </c>
       <c r="P7" s="2">
-        <v>20.0382486979166</v>
+        <v>21.8747965494791</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>0.93811865982068887</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>60.319396058621912</v>
+        <v>8.4822534016396176</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>2809904217</v>
+      <c r="B8" s="4">
+        <v>3551823112</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>98274140960</v>
+        <v>126350827904</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>982.7414096</v>
+        <v>1263.5082790399999</v>
       </c>
       <c r="E8" s="2">
-        <v>87.1424153645833</v>
+        <v>94.0990804036458</v>
       </c>
       <c r="F8" s="2">
-        <v>80.235107421875</v>
+        <v>82.525492350260393</v>
       </c>
       <c r="G8" s="2">
-        <v>77.3519694010416</v>
+        <v>77.808532714843693</v>
       </c>
       <c r="H8" s="2">
-        <v>64.7074381510416</v>
+        <v>66.5900472005208</v>
       </c>
       <c r="I8" s="2">
-        <v>75.2413736979166</v>
+        <v>80.482198079426993</v>
       </c>
       <c r="J8" s="2">
-        <v>75.03955078125</v>
+        <v>75.4902750651041</v>
       </c>
       <c r="K8" s="2">
-        <v>76.8086751302083</v>
+        <v>75.029968261718693</v>
       </c>
       <c r="L8" s="2">
-        <v>69.0166829427083</v>
+        <v>70.368876139322893</v>
       </c>
       <c r="N8" s="2">
-        <v>64.7736002604166</v>
+        <v>66.612487792968693</v>
       </c>
       <c r="O8" s="2">
-        <v>4.6394856770833304</v>
+        <v>4.8477579752604099</v>
       </c>
       <c r="P8" s="2">
-        <v>19.7001139322916</v>
+        <v>21.6129760742187</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>0.92162524198553919</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="3"/>
-        <v>59.636008344218027</v>
+        <v>8.4137075939522408</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>2706264647</v>
+      <c r="B9" s="4">
+        <v>3393167008</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>96615907840</v>
+        <v>123812330240</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>966.1590784</v>
+        <v>1238.1233024000001</v>
       </c>
       <c r="E9" s="2">
-        <v>116.914469401041</v>
+        <v>95.3047688802083</v>
       </c>
       <c r="F9" s="2">
-        <v>110.031087239583</v>
+        <v>83.323628743489493</v>
       </c>
       <c r="G9" s="2">
-        <v>105.779296875</v>
+        <v>79.970947265625</v>
       </c>
       <c r="H9" s="2">
-        <v>92.8462727864583</v>
+        <v>67.3459065755208</v>
       </c>
       <c r="I9" s="2">
-        <v>104.971354166666</v>
+        <v>81.122334798176993</v>
       </c>
       <c r="J9" s="2">
-        <v>103.976318359375</v>
+        <v>76.271626790364493</v>
       </c>
       <c r="K9" s="2">
-        <v>104.997965494791</v>
+        <v>75.7460530598958</v>
       </c>
       <c r="L9" s="2">
-        <v>96.9047037760416</v>
+        <v>71.0454915364583</v>
       </c>
       <c r="N9" s="2">
-        <v>93.02734375</v>
+        <v>67.3314208984375</v>
       </c>
       <c r="O9" s="2">
-        <v>5.0284016927083304</v>
+        <v>4.8774007161458304</v>
       </c>
       <c r="P9" s="2">
-        <v>21.2727864583333</v>
+        <v>21.9504191080729</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>0.90607415717768036</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>84.125608362079205</v>
+        <v>8.3382536252405703</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>2589541472</v>
+      <c r="B10" s="4">
+        <v>3234510904</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>94748337040</v>
+        <v>121273832576</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>947.48337040000001</v>
+        <v>1212.73832576</v>
       </c>
       <c r="E10" s="2">
-        <v>104.196370442708</v>
+        <v>92.947896321614493</v>
       </c>
       <c r="F10" s="2">
-        <v>98.9817708333333</v>
+        <v>87.3469645182291</v>
       </c>
       <c r="G10" s="2">
-        <v>95.9742838541666</v>
+        <v>83.473388671875</v>
       </c>
       <c r="H10" s="2">
-        <v>81.2023111979166</v>
+        <v>69.384094238281193</v>
       </c>
       <c r="I10" s="2">
-        <v>91.6659342447916</v>
+        <v>80.4724527994791</v>
       </c>
       <c r="J10" s="2">
-        <v>93.5186360677083</v>
+        <v>79.4281819661458</v>
       </c>
       <c r="K10" s="2">
-        <v>95.4064127604166</v>
+        <v>79.582743326822893</v>
       </c>
       <c r="L10" s="2">
-        <v>85.1419270833333</v>
+        <v>72.7983805338541</v>
       </c>
       <c r="N10" s="2">
-        <v>81.316650390625</v>
+        <v>69.4300537109375</v>
       </c>
       <c r="O10" s="2">
-        <v>5.010986328125</v>
+        <v>4.9306233723958304</v>
       </c>
       <c r="P10" s="2">
-        <v>21.5714518229166</v>
+        <v>21.9704996744791</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0.88855988156395915</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
-        <v>72.153116020740526</v>
+        <v>8.4144750280907186</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>2486649372</v>
+      <c r="B11" s="4">
+        <v>3075854800</v>
       </c>
       <c r="C11">
         <f>16*B$3+16*B11</f>
-        <v>93102063440</v>
+        <v>118735334912</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>931.02063439999995</v>
+        <v>1187.3533491200001</v>
       </c>
       <c r="E11" s="2">
-        <v>107.419514973958</v>
+        <v>91.400085449218693</v>
       </c>
       <c r="F11" s="2">
-        <v>97.388671875</v>
+        <v>85.9220377604166</v>
       </c>
       <c r="G11" s="2">
-        <v>95.421142578125</v>
+        <v>80.919047037760393</v>
       </c>
       <c r="H11" s="2">
-        <v>81.078369140625</v>
+        <v>68.6669108072916</v>
       </c>
       <c r="I11" s="2">
-        <v>96.22509765625</v>
+        <v>79.252421061197893</v>
       </c>
       <c r="J11" s="2">
-        <v>91.0738932291666</v>
+        <v>78.0015055338541</v>
       </c>
       <c r="K11" s="2">
-        <v>92.7096354166666</v>
+        <v>77.8133138020833</v>
       </c>
       <c r="L11" s="2">
-        <v>85.2618001302083</v>
+        <v>72.2139485677083</v>
       </c>
       <c r="N11" s="2">
-        <v>81.3715006510416</v>
+        <v>68.6319173177083</v>
       </c>
       <c r="O11" s="2">
-        <v>4.7984212239583304</v>
+        <v>4.7107950846354099</v>
       </c>
       <c r="P11" s="2">
-        <v>21.7640787760416</v>
+        <v>20.9932250976562</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>0.87312095439397286</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="3"/>
-        <v>70.791223044769339</v>
+        <v>8.1531886520762011</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>2376400613</v>
+      <c r="B12" s="5">
+        <v>2877659695</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C19" si="4">16*B$3+16*B12</f>
-        <v>91338083296</v>
+        <f t="shared" ref="C12:C19" si="3">16*B$3+16*B12</f>
+        <v>115564213232</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>913.38083296000002</v>
+        <v>1155.64213232</v>
       </c>
       <c r="E12" s="2">
-        <v>97.7327473958333</v>
+        <v>94.903055826822893</v>
       </c>
       <c r="F12" s="2">
-        <v>94.0345052083333</v>
+        <v>83.213887532551993</v>
       </c>
       <c r="G12" s="2">
-        <v>91.3193359375</v>
+        <v>78.1372477213541</v>
       </c>
       <c r="H12" s="2">
-        <v>76.2172037760416</v>
+        <v>67.315979003906193</v>
       </c>
       <c r="I12" s="2">
-        <v>86.8236490885416</v>
+        <v>82.529683430989493</v>
       </c>
       <c r="J12" s="2">
-        <v>87.6006673177083</v>
+        <v>76.3723958333333</v>
       </c>
       <c r="K12" s="2">
-        <v>89.58056640625</v>
+        <v>75.3782958984375</v>
       </c>
       <c r="L12" s="2">
-        <v>80.4873860677083</v>
+        <v>71.1805419921875</v>
       </c>
       <c r="N12" s="2">
-        <v>76.4935709635416</v>
+        <v>67.3232014973958</v>
       </c>
       <c r="O12" s="2">
-        <v>4.9965006510416599</v>
+        <v>4.9323933919270804</v>
       </c>
       <c r="P12" s="2">
-        <v>20.9746907552083</v>
+        <v>21.4789835611979</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>0.85657816286010036</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="3"/>
-        <v>65.285992388815615</v>
+        <v>7.7793181515282503</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>2265272194</v>
+      <c r="B13" s="5">
+        <v>2735133780</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
-        <v>89560028592</v>
+        <f t="shared" si="3"/>
+        <v>113283798592</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>895.60028592000003</v>
+        <v>1132.8379859199999</v>
       </c>
       <c r="E13" s="2">
-        <v>106.934407552083</v>
+        <v>95.9983723958333</v>
       </c>
       <c r="F13" s="2">
-        <v>104.692464192708</v>
+        <v>85.453633626301993</v>
       </c>
       <c r="G13" s="2">
-        <v>102.5546875</v>
+        <v>81.0636800130208</v>
       </c>
       <c r="H13" s="2">
-        <v>85.5799153645833</v>
+        <v>69.0785319010416</v>
       </c>
       <c r="I13" s="2">
-        <v>93.8968098958333</v>
+        <v>83.2264404296875</v>
       </c>
       <c r="J13" s="2">
-        <v>98.518310546875</v>
+        <v>77.9609375</v>
       </c>
       <c r="K13" s="2">
-        <v>100.827473958333</v>
+        <v>77.840026855468693</v>
       </c>
       <c r="L13" s="2">
-        <v>89.4058430989583</v>
+        <v>72.5384928385416</v>
       </c>
       <c r="N13" s="2">
-        <v>85.9794921875</v>
+        <v>69.0281575520833</v>
       </c>
       <c r="O13" s="2">
-        <v>5.0043131510416599</v>
+        <v>5.0415852864583304</v>
       </c>
       <c r="P13" s="2">
-        <v>22.2255045572916</v>
+        <v>21.7834269205729</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>0.83990337862052589</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="3"/>
-        <v>71.878860056772169</v>
+        <v>7.8254784949086433</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2158695170</v>
+      <c r="B14" s="5">
+        <v>2570128958</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
-        <v>87854796208</v>
+        <f t="shared" si="3"/>
+        <v>110643721440</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>878.54796208000005</v>
+        <v>1106.4372143999999</v>
       </c>
       <c r="E14" s="2">
-        <v>115.410481770833</v>
+        <v>91.7731526692708</v>
       </c>
       <c r="F14" s="2">
-        <v>106.810791015625</v>
+        <v>85.056538899739493</v>
       </c>
       <c r="G14" s="2">
-        <v>107.075439453125</v>
+        <v>80.8420817057291</v>
       </c>
       <c r="H14" s="2">
-        <v>90.593994140625</v>
+        <v>67.731750488281193</v>
       </c>
       <c r="I14" s="2">
-        <v>104.021240234375</v>
+        <v>79.493306477864493</v>
       </c>
       <c r="J14" s="2">
-        <v>100.480061848958</v>
+        <v>77.428446451822893</v>
       </c>
       <c r="K14" s="2">
-        <v>102.781005859375</v>
+        <v>77.8242594401041</v>
       </c>
       <c r="L14" s="2">
-        <v>94.23095703125</v>
+        <v>71.2847086588541</v>
       </c>
       <c r="N14" s="2">
-        <v>90.73876953125</v>
+        <v>67.6955973307291</v>
       </c>
       <c r="O14" s="2">
-        <v>5.036376953125</v>
+        <v>4.9558512369791599</v>
       </c>
       <c r="P14" s="2">
-        <v>21.5962727864583</v>
+        <v>21.5111287434895</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0.82391152976595028</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="3"/>
-        <v>74.641436300009886</v>
+        <v>7.4940929336689672</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>2052163805</v>
+      <c r="B15" s="5">
+        <v>2423620578</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
-        <v>86150294368</v>
+        <f t="shared" si="3"/>
+        <v>108299587360</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>861.50294368000004</v>
+        <v>1082.9958736000001</v>
       </c>
       <c r="E15" s="2">
-        <v>98.594970703125</v>
+        <v>91.357889811197893</v>
       </c>
       <c r="F15" s="2">
-        <v>92.44189453125</v>
+        <v>83.968485514322893</v>
       </c>
       <c r="G15" s="2">
-        <v>86.5602213541666</v>
+        <v>79.735168457031193</v>
       </c>
       <c r="H15" s="2">
-        <v>75.2876790364583</v>
+        <v>67.1111653645833</v>
       </c>
       <c r="I15" s="2">
-        <v>90.5440266927083</v>
+        <v>78.930887858072893</v>
       </c>
       <c r="J15" s="2">
-        <v>85.4364420572916</v>
+        <v>76.800638834635393</v>
       </c>
       <c r="K15" s="2">
-        <v>84.8959147135416</v>
+        <v>76.7611897786458</v>
       </c>
       <c r="L15" s="2">
-        <v>79.5298665364583</v>
+        <v>70.6692708333333</v>
       </c>
       <c r="N15" s="2">
-        <v>75.5015462239583</v>
+        <v>67.176167805989493</v>
       </c>
       <c r="O15" s="2">
-        <v>4.8745930989583304</v>
+        <v>4.7354939778645804</v>
       </c>
       <c r="P15" s="2">
-        <v>20.7105305989583</v>
+        <v>21.1901245117187</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>0.80792653202993148</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="3"/>
-        <v>60.826913428508327</v>
+        <v>7.2681115162330956</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>1948975216</v>
+      <c r="B16" s="5">
+        <v>2266552738</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
-        <v>84499276944</v>
+        <f t="shared" si="3"/>
+        <v>105786501920</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>844.99276943999996</v>
+        <v>1057.8650192</v>
       </c>
       <c r="E16" s="2">
-        <v>107.515950520833</v>
+        <v>94.1580403645833</v>
       </c>
       <c r="F16" s="2">
-        <v>107.953694661458</v>
+        <v>86.60009765625</v>
       </c>
       <c r="G16" s="2">
-        <v>104.320556640625</v>
+        <v>83.1587727864583</v>
       </c>
       <c r="H16" s="2">
-        <v>88.4054361979166</v>
+        <v>69.419576009114493</v>
       </c>
       <c r="I16" s="2">
-        <v>99.8479817708333</v>
+        <v>82.708597819010393</v>
       </c>
       <c r="J16" s="2">
-        <v>100.490885416666</v>
+        <v>78.6217447916666</v>
       </c>
       <c r="K16" s="2">
-        <v>104.317220052083</v>
+        <v>78.9710693359375</v>
       </c>
       <c r="L16" s="2">
-        <v>92.73828125</v>
+        <v>72.806294759114493</v>
       </c>
       <c r="N16" s="2">
-        <v>88.651611328125</v>
+        <v>69.45068359375</v>
       </c>
       <c r="O16" s="2">
-        <v>4.9158528645833304</v>
+        <v>5.0482177734375</v>
       </c>
       <c r="P16" s="2">
-        <v>21.6283365885416</v>
+        <v>21.7674967447916</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>0.79244311677895829</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="3"/>
-        <v>70.056279400880371</v>
+        <v>7.3436541107737767</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>1842879793</v>
+      <c r="B17" s="5">
+        <v>2120819972</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
-        <v>82801750176</v>
+        <f t="shared" si="3"/>
+        <v>103454777664</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>828.01750175999996</v>
+        <v>1034.5477766399999</v>
       </c>
       <c r="E17" s="2">
-        <v>119.132893880208</v>
+        <v>89.7767333984375</v>
       </c>
       <c r="F17" s="2">
-        <v>114.156901041666</v>
+        <v>84.4059244791666</v>
       </c>
       <c r="G17" s="2">
-        <v>109.822672526041</v>
+        <v>79.283345540364493</v>
       </c>
       <c r="H17" s="2">
-        <v>96.171142578125</v>
+        <v>67.07177734375</v>
       </c>
       <c r="I17" s="2">
-        <v>109.045817057291</v>
+        <v>78.39013671875</v>
       </c>
       <c r="J17" s="2">
-        <v>108.407633463541</v>
+        <v>76.970682779947893</v>
       </c>
       <c r="K17" s="2">
-        <v>108.330810546875</v>
+        <v>76.1253255208333</v>
       </c>
       <c r="L17" s="2">
-        <v>100.551106770833</v>
+        <v>70.4989827473958</v>
       </c>
       <c r="N17" s="2">
-        <v>96.592529296875</v>
+        <v>67.048767089843693</v>
       </c>
       <c r="O17" s="2">
-        <v>5.1432291666666599</v>
+        <v>4.83526611328125</v>
       </c>
       <c r="P17" s="2">
-        <v>21.348388671875</v>
+        <v>20.941162109375</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>0.77652353200261603</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="3"/>
-        <v>74.679155311492792</v>
+        <v>6.9388958126269689</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1741805296</v>
+        <v>1965262072</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
-        <v>81184558224</v>
+        <f t="shared" si="3"/>
+        <v>100965851264</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>811.84558224</v>
+        <v>1009.65851264</v>
       </c>
       <c r="E18" s="2">
-        <v>100.462076822916</v>
+        <v>94.1113688151041</v>
       </c>
       <c r="F18" s="2">
-        <v>100.626139322916</v>
+        <v>85.185302734375</v>
       </c>
       <c r="G18" s="2">
-        <v>101.168538411458</v>
+        <v>80.323913574218693</v>
       </c>
       <c r="H18" s="2">
-        <v>82.276123046875</v>
+        <v>67.896545410156193</v>
       </c>
       <c r="I18" s="2">
-        <v>88.8098958333333</v>
+        <v>82.6033528645833</v>
       </c>
       <c r="J18" s="2">
-        <v>94.10400390625</v>
+        <v>77.562154134114493</v>
       </c>
       <c r="K18" s="2">
-        <v>99.2855631510416</v>
+        <v>76.132548014322893</v>
       </c>
       <c r="L18" s="2">
-        <v>85.557861328125</v>
+        <v>71.129292805989493</v>
       </c>
       <c r="N18" s="2">
-        <v>82.507080078125</v>
+        <v>67.920471191406193</v>
       </c>
       <c r="O18" s="2">
-        <v>5.1272786458333304</v>
+        <v>5.0616251627604099</v>
       </c>
       <c r="P18" s="2">
-        <v>20.7162272135416</v>
+        <v>22.1643880208333</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>0.76135733558981089</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="3"/>
-        <v>62.641529825628183</v>
+        <v>6.8552325052212515</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1632326367</v>
+        <v>1806605968</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
-        <v>79432895360</v>
+        <f t="shared" si="3"/>
+        <v>98427353600</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>794.32895359999998</v>
+        <v>984.27353600000004</v>
       </c>
       <c r="E19" s="2">
-        <v>112.6064453125</v>
+        <v>89.4882405598958</v>
       </c>
       <c r="F19" s="2">
-        <v>112.452555338541</v>
+        <v>79.606689453125</v>
       </c>
       <c r="G19" s="2">
-        <v>110.724609375</v>
+        <v>74.1369222005208</v>
       </c>
       <c r="H19" s="2">
-        <v>92.65869140625</v>
+        <v>63.8853759765625</v>
       </c>
       <c r="I19" s="2">
-        <v>101.286865234375</v>
+        <v>77.791320800781193</v>
       </c>
       <c r="J19" s="2">
-        <v>106.407389322916</v>
+        <v>72.2110595703125</v>
       </c>
       <c r="K19" s="2">
-        <v>107.796468098958</v>
+        <v>70.9912516276041</v>
       </c>
       <c r="L19" s="2">
-        <v>96.408447265625</v>
+        <v>67.103535970051993</v>
       </c>
       <c r="N19" s="2">
-        <v>92.8548990885416</v>
+        <v>63.8948160807291</v>
       </c>
       <c r="O19" s="2">
-        <v>5.2303873697916599</v>
+        <v>4.8279012044270804</v>
       </c>
       <c r="P19" s="2">
-        <v>22.2242024739583</v>
+        <v>20.4872843424479</v>
       </c>
       <c r="U19">
-        <f t="shared" si="2"/>
-        <v>0.74493005680476221</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="3"/>
-        <v>69.024244252712748</v>
+        <f>D19*H19/10000</f>
+        <v>6.2880684911140623</v>
       </c>
     </row>
   </sheetData>
@@ -15081,54 +16077,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6519B477-C4AB-467B-9B48-9C9ED35D0024}">
-  <dimension ref="A1:V19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F83350A-2816-4347-B7E8-682CB5F4D204}">
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
       <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15139,7 +16133,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -15151,7 +16145,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -15166,33 +16160,30 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" s="2">
         <f>MAX(E3:L19)</f>
-        <v>178.13342285156199</v>
+        <v>240.42332458496</v>
       </c>
       <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>4495484288</v>
       </c>
       <c r="C3">
@@ -15204,59 +16195,55 @@
         <v>1438.55497216</v>
       </c>
       <c r="E3" s="2">
-        <v>163.175537109375</v>
+        <v>197.71902465820301</v>
       </c>
       <c r="F3" s="2">
-        <v>128.95037841796801</v>
+        <v>154.49092102050699</v>
       </c>
       <c r="G3" s="2">
-        <v>95.813293457031193</v>
+        <v>107.02279663085901</v>
       </c>
       <c r="H3" s="2">
-        <v>132.40936279296801</v>
+        <v>158.43395996093699</v>
       </c>
       <c r="I3" s="2">
-        <v>144.028564453125</v>
+        <v>169.86648559570301</v>
       </c>
       <c r="J3" s="2">
-        <v>140.91943359375</v>
+        <v>167.081619262695</v>
       </c>
       <c r="K3" s="2">
-        <v>139.46331787109301</v>
+        <v>161.08837890625</v>
       </c>
       <c r="L3" s="2">
-        <v>140.31604003906199</v>
+        <v>165.84109497070301</v>
       </c>
       <c r="N3" s="2">
-        <v>132.55725097656199</v>
+        <v>158.38368225097599</v>
       </c>
       <c r="O3" s="2">
-        <v>3.4503173828125</v>
+        <v>4.25360107421875</v>
       </c>
       <c r="P3" s="2">
-        <v>2.323974609375</v>
+        <v>2.88194274902343</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="2">
         <f>MIN(E3:L19)</f>
-        <v>89.925048828125</v>
+        <v>94.546981811523395</v>
       </c>
       <c r="U3">
-        <f>D3/D$3</f>
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <f>H3*U3</f>
-        <v>132.40936279296801</v>
+        <f>D3*H3/10000</f>
+        <v>22.791596086080428</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>4429062612</v>
       </c>
       <c r="C4">
@@ -15264,56 +16251,52 @@
         <v>142792750400</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="1">C4/(10^8)</f>
+        <f t="shared" ref="D4:D19" si="1">C4/(10^8)</f>
         <v>1427.927504</v>
       </c>
       <c r="E4" s="2">
-        <v>164.68267822265599</v>
+        <v>183.02407836914</v>
       </c>
       <c r="F4" s="2">
-        <v>128.908935546875</v>
+        <v>140.25965881347599</v>
       </c>
       <c r="G4" s="2">
-        <v>96.1014404296875</v>
+        <v>97.590759277343693</v>
       </c>
       <c r="H4" s="2">
-        <v>132.85968017578099</v>
+        <v>144.81236267089801</v>
       </c>
       <c r="I4" s="2">
-        <v>144.24542236328099</v>
+        <v>156.33923339843699</v>
       </c>
       <c r="J4" s="2">
-        <v>140.79998779296801</v>
+        <v>152.71853637695301</v>
       </c>
       <c r="K4" s="2">
-        <v>139.10369873046801</v>
+        <v>149.99026489257801</v>
       </c>
       <c r="L4" s="2">
-        <v>140.227294921875</v>
+        <v>152.25134277343699</v>
       </c>
       <c r="N4" s="2">
-        <v>132.955078125</v>
+        <v>144.807525634765</v>
       </c>
       <c r="O4" s="2">
-        <v>3.4451904296875</v>
+        <v>3.9565582275390598</v>
       </c>
       <c r="P4" s="2">
-        <v>2.36907958984375</v>
+        <v>2.7149200439453098</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U19" si="2">D4/D$3</f>
-        <v>0.99261240038394727</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V19" si="3">H4*U4</f>
-        <v>131.87816605352552</v>
+        <f t="shared" ref="U4:U19" si="2">D4*H4/10000</f>
+        <v>20.678155557699817</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>4353567110</v>
       </c>
       <c r="C5">
@@ -15325,52 +16308,48 @@
         <v>1415.84822368</v>
       </c>
       <c r="E5" s="2">
-        <v>164.23651123046801</v>
+        <v>209.72233581542901</v>
       </c>
       <c r="F5" s="2">
-        <v>130.71917724609301</v>
+        <v>173.27703857421801</v>
       </c>
       <c r="G5" s="2">
-        <v>96.4327392578125</v>
+        <v>130.09025573730401</v>
       </c>
       <c r="H5" s="2">
-        <v>133.92370605468699</v>
+        <v>175.7119140625</v>
       </c>
       <c r="I5" s="2">
-        <v>145.12548828125</v>
+        <v>185.68009948730401</v>
       </c>
       <c r="J5" s="2">
-        <v>142.3740234375</v>
+        <v>185.75874328613199</v>
       </c>
       <c r="K5" s="2">
-        <v>139.727294921875</v>
+        <v>179.01705932617099</v>
       </c>
       <c r="L5" s="2">
-        <v>141.40179443359301</v>
+        <v>183.35836791992099</v>
       </c>
       <c r="N5" s="2">
-        <v>133.814697265625</v>
+        <v>175.62821960449199</v>
       </c>
       <c r="O5" s="2">
-        <v>3.48681640625</v>
+        <v>4.2833099365234304</v>
       </c>
       <c r="P5" s="2">
-        <v>2.32696533203125</v>
+        <v>2.82902526855468</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>0.98421558513964491</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="3"/>
-        <v>131.80979871868357</v>
+        <v>24.878140140480344</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4274826185</v>
       </c>
       <c r="C6">
@@ -15382,52 +16361,48 @@
         <v>1403.2496756800001</v>
       </c>
       <c r="E6" s="2">
-        <v>161.749267578125</v>
+        <v>185.69998168945301</v>
       </c>
       <c r="F6" s="2">
-        <v>127.727416992187</v>
+        <v>142.22062683105401</v>
       </c>
       <c r="G6" s="2">
-        <v>95.494689941406193</v>
+        <v>98.877349853515597</v>
       </c>
       <c r="H6" s="2">
-        <v>131.24261474609301</v>
+        <v>146.727294921875</v>
       </c>
       <c r="I6" s="2">
-        <v>142.22082519531199</v>
+        <v>157.70587158203099</v>
       </c>
       <c r="J6" s="2">
-        <v>139.25482177734301</v>
+        <v>154.76939392089801</v>
       </c>
       <c r="K6" s="2">
-        <v>136.862060546875</v>
+        <v>152.13182067871</v>
       </c>
       <c r="L6" s="2">
-        <v>138.48693847656199</v>
+        <v>154.02436828613199</v>
       </c>
       <c r="N6" s="2">
-        <v>131.411865234375</v>
+        <v>146.76354980468699</v>
       </c>
       <c r="O6" s="2">
-        <v>3.41387939453125</v>
+        <v>4.1031188964843697</v>
       </c>
       <c r="P6" s="2">
-        <v>2.32769775390625</v>
+        <v>2.8701477050781201</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>0.97545780511467783</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="3"/>
-        <v>128.02163291773513</v>
+        <v>20.58950290125248</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>4193917415</v>
       </c>
       <c r="C7">
@@ -15439,52 +16414,48 @@
         <v>1390.30427248</v>
       </c>
       <c r="E7" s="2">
-        <v>165.48937988281199</v>
+        <v>185.11630249023401</v>
       </c>
       <c r="F7" s="2">
-        <v>131.55316162109301</v>
+        <v>142.40425109863199</v>
       </c>
       <c r="G7" s="2">
-        <v>97.221435546875</v>
+        <v>98.899917602539006</v>
       </c>
       <c r="H7" s="2">
-        <v>134.8193359375</v>
+        <v>146.75888061523401</v>
       </c>
       <c r="I7" s="2">
-        <v>146.45159912109301</v>
+        <v>157.92561340332</v>
       </c>
       <c r="J7" s="2">
-        <v>143.02655029296801</v>
+        <v>155.49610900878901</v>
       </c>
       <c r="K7" s="2">
-        <v>140.397705078125</v>
+        <v>152.21208190917901</v>
       </c>
       <c r="L7" s="2">
-        <v>142.33966064453099</v>
+        <v>154.54875183105401</v>
       </c>
       <c r="N7" s="2">
-        <v>134.92718505859301</v>
+        <v>146.68316650390599</v>
       </c>
       <c r="O7" s="2">
-        <v>3.49285888671875</v>
+        <v>4.0734405517578098</v>
       </c>
       <c r="P7" s="2">
-        <v>2.34027099609375</v>
+        <v>2.81536865234375</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>0.96645891146756024</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>130.29734865493558</v>
+        <v>20.403949874374209</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>4108037249</v>
       </c>
       <c r="C8">
@@ -15496,52 +16467,48 @@
         <v>1376.56344592</v>
       </c>
       <c r="E8" s="2">
-        <v>159.69586181640599</v>
+        <v>183.82469177246</v>
       </c>
       <c r="F8" s="2">
-        <v>126.227172851562</v>
+        <v>140.57666015625</v>
       </c>
       <c r="G8" s="2">
-        <v>94.318603515625</v>
+        <v>97.295501708984304</v>
       </c>
       <c r="H8" s="2">
-        <v>129.69427490234301</v>
+        <v>145.09883117675699</v>
       </c>
       <c r="I8" s="2">
-        <v>141.57421875</v>
+        <v>156.25889587402301</v>
       </c>
       <c r="J8" s="2">
-        <v>138.24505615234301</v>
+        <v>153.184814453125</v>
       </c>
       <c r="K8" s="2">
-        <v>135.46240234375</v>
+        <v>149.98489379882801</v>
       </c>
       <c r="L8" s="2">
-        <v>137.45745849609301</v>
+        <v>152.38803100585901</v>
       </c>
       <c r="N8" s="2">
-        <v>129.689453125</v>
+        <v>145.03840637207</v>
       </c>
       <c r="O8" s="2">
-        <v>3.41192626953125</v>
+        <v>4.0769805908203098</v>
       </c>
       <c r="P8" s="2">
-        <v>2.30535888671875</v>
+        <v>2.84977722167968</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>0.9569070856243197</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="3"/>
-        <v>124.10537061896041</v>
+        <v>19.973774704364093</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>4026885071</v>
       </c>
       <c r="C9">
@@ -15553,52 +16520,48 @@
         <v>1363.5790974399999</v>
       </c>
       <c r="E9" s="2">
-        <v>172.65655517578099</v>
+        <v>182.364486694335</v>
       </c>
       <c r="F9" s="2">
-        <v>137.777587890625</v>
+        <v>139.49945068359301</v>
       </c>
       <c r="G9" s="2">
-        <v>101.343933105468</v>
+        <v>95.845016479492102</v>
       </c>
       <c r="H9" s="2">
-        <v>140.869140625</v>
+        <v>143.81706237792901</v>
       </c>
       <c r="I9" s="2">
-        <v>151.68975830078099</v>
+        <v>155.24591064453099</v>
       </c>
       <c r="J9" s="2">
-        <v>149.40399169921801</v>
+        <v>151.81632995605401</v>
       </c>
       <c r="K9" s="2">
-        <v>147.795166015625</v>
+        <v>149.119216918945</v>
       </c>
       <c r="L9" s="2">
-        <v>148.16925048828099</v>
+        <v>151.16897583007801</v>
       </c>
       <c r="N9" s="2">
-        <v>140.82525634765599</v>
+        <v>143.76286315917901</v>
       </c>
       <c r="O9" s="2">
-        <v>3.79071044921875</v>
+        <v>4.1408538818359304</v>
       </c>
       <c r="P9" s="2">
-        <v>2.56134033203125</v>
+        <v>2.8690338134765598</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>0.94788111947684328</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>133.52719871536587</v>
+        <v>19.610594011376858</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>3950722482</v>
       </c>
       <c r="C10">
@@ -15610,52 +16573,48 @@
         <v>1351.3930832000001</v>
       </c>
       <c r="E10" s="2">
-        <v>166.33825683593699</v>
+        <v>226.78192138671801</v>
       </c>
       <c r="F10" s="2">
-        <v>132.306884765625</v>
+        <v>191.27282714843699</v>
       </c>
       <c r="G10" s="2">
-        <v>98.369384765625</v>
+        <v>144.07762145996</v>
       </c>
       <c r="H10" s="2">
-        <v>135.650634765625</v>
+        <v>192.77900695800699</v>
       </c>
       <c r="I10" s="2">
-        <v>148.60247802734301</v>
+        <v>203.12535095214801</v>
       </c>
       <c r="J10" s="2">
-        <v>144.55609130859301</v>
+        <v>203.294021606445</v>
       </c>
       <c r="K10" s="2">
-        <v>142.7001953125</v>
+        <v>191.66053771972599</v>
       </c>
       <c r="L10" s="2">
-        <v>143.97149658203099</v>
+        <v>200.16746520996</v>
       </c>
       <c r="N10" s="2">
-        <v>135.583251953125</v>
+        <v>192.77618408203099</v>
       </c>
       <c r="O10" s="2">
-        <v>3.439697265625</v>
+        <v>4.52520751953125</v>
       </c>
       <c r="P10" s="2">
-        <v>2.36920166015625</v>
+        <v>2.91748046875</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0.93941010900047439</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
-        <v>127.43157759115932</v>
+        <v>26.052021658921532</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>3871621864</v>
       </c>
       <c r="C11">
@@ -15667,501 +16626,465 @@
         <v>1338.7369843199999</v>
       </c>
       <c r="E11" s="2">
-        <v>168.072998046875</v>
+        <v>185.31710815429599</v>
       </c>
       <c r="F11" s="2">
-        <v>133.50134277343699</v>
+        <v>143.25274658203099</v>
       </c>
       <c r="G11" s="2">
-        <v>99.081726074218693</v>
+        <v>99.214950561523395</v>
       </c>
       <c r="H11" s="2">
-        <v>136.81494140625</v>
+        <v>147.23951721191401</v>
       </c>
       <c r="I11" s="2">
-        <v>148.77307128906199</v>
+        <v>159.48196411132801</v>
       </c>
       <c r="J11" s="2">
-        <v>144.76483154296801</v>
+        <v>156.12893676757801</v>
       </c>
       <c r="K11" s="2">
-        <v>141.99371337890599</v>
+        <v>150.81675720214801</v>
       </c>
       <c r="L11" s="2">
-        <v>144.2041015625</v>
+        <v>155.11021423339801</v>
       </c>
       <c r="N11" s="2">
-        <v>137.03643798828099</v>
+        <v>147.30299377441401</v>
       </c>
       <c r="O11" s="2">
-        <v>3.5311279296875</v>
+        <v>4.1153564453125</v>
       </c>
       <c r="P11" s="2">
-        <v>2.4202880859375</v>
+        <v>2.82574462890625</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>0.93061232294090035</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="3"/>
-        <v>127.32167043509348</v>
+        <v>19.711498724501048</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>3782772283</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C19" si="4">16*B$3+16*B12</f>
+        <f t="shared" ref="C12:C19" si="3">16*B$3+16*B12</f>
         <v>132452105136</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="5">C12/(10^8)</f>
+        <f t="shared" si="1"/>
         <v>1324.52105136</v>
       </c>
       <c r="E12" s="2">
-        <v>164.68743896484301</v>
+        <v>190.94786071777301</v>
       </c>
       <c r="F12" s="2">
-        <v>131.54010009765599</v>
+        <v>148.05194091796801</v>
       </c>
       <c r="G12" s="2">
-        <v>96.792907714843693</v>
+        <v>101.72906494140599</v>
       </c>
       <c r="H12" s="2">
-        <v>134.36663818359301</v>
+        <v>151.99940490722599</v>
       </c>
       <c r="I12" s="2">
-        <v>147.04235839843699</v>
+        <v>164.60533142089801</v>
       </c>
       <c r="J12" s="2">
-        <v>143.28729248046801</v>
+        <v>160.58502197265599</v>
       </c>
       <c r="K12" s="2">
-        <v>138.80413818359301</v>
+        <v>153.351303100585</v>
       </c>
       <c r="L12" s="2">
-        <v>142.30242919921801</v>
+        <v>159.46685791015599</v>
       </c>
       <c r="N12" s="2">
-        <v>134.42883300781199</v>
+        <v>151.98654174804599</v>
       </c>
       <c r="O12" s="2">
-        <v>3.6142578125</v>
+        <v>4.2356109619140598</v>
       </c>
       <c r="P12" s="2">
-        <v>2.41326904296875</v>
+        <v>2.8892364501953098</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>0.92073023067809678</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="3"/>
-        <v>123.71542577021997</v>
+        <v>20.132641159381329</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>3697568874</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>131088850592</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1310.8885059199999</v>
       </c>
       <c r="E13" s="2">
-        <v>164.63055419921801</v>
+        <v>240.42332458496</v>
       </c>
       <c r="F13" s="2">
-        <v>129.99462890625</v>
+        <v>204.30532836914</v>
       </c>
       <c r="G13" s="2">
-        <v>96.929992675781193</v>
+        <v>153.11991882324199</v>
       </c>
       <c r="H13" s="2">
-        <v>133.52386474609301</v>
+        <v>205.33857727050699</v>
       </c>
       <c r="I13" s="2">
-        <v>146.17657470703099</v>
+        <v>216.668853759765</v>
       </c>
       <c r="J13" s="2">
-        <v>141.60119628906199</v>
+        <v>216.47518920898401</v>
       </c>
       <c r="K13" s="2">
-        <v>138.59674072265599</v>
+        <v>200.62521362304599</v>
       </c>
       <c r="L13" s="2">
-        <v>141.058349609375</v>
+        <v>212.68962097167901</v>
       </c>
       <c r="N13" s="2">
-        <v>133.609375</v>
+        <v>205.34989929199199</v>
       </c>
       <c r="O13" s="2">
-        <v>3.5811767578125</v>
+        <v>4.8228302001953098</v>
       </c>
       <c r="P13" s="2">
-        <v>2.46826171875</v>
+        <v>3.0720520019531201</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>0.91125367559064629</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="3"/>
-        <v>121.67411252894557</v>
+        <v>26.917598076587339</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>3618819490</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>129828860448</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1298.28860448</v>
       </c>
       <c r="E14" s="2">
-        <v>170.93756103515599</v>
+        <v>189.07995605468699</v>
       </c>
       <c r="F14" s="2">
-        <v>136.389892578125</v>
+        <v>146.37785339355401</v>
       </c>
       <c r="G14" s="2">
-        <v>100.300415039062</v>
+        <v>101.655136108398</v>
       </c>
       <c r="H14" s="2">
-        <v>139.60974121093699</v>
+        <v>150.36227416992099</v>
       </c>
       <c r="I14" s="2">
-        <v>152.63616943359301</v>
+        <v>162.88204956054599</v>
       </c>
       <c r="J14" s="2">
-        <v>148.40399169921801</v>
+        <v>158.74493408203099</v>
       </c>
       <c r="K14" s="2">
-        <v>143.14813232421801</v>
+        <v>151.52386474609301</v>
       </c>
       <c r="L14" s="2">
-        <v>147.45373535156199</v>
+        <v>157.58900451660099</v>
       </c>
       <c r="N14" s="2">
-        <v>139.37908935546801</v>
+        <v>150.37359619140599</v>
       </c>
       <c r="O14" s="2">
-        <v>3.68603515625</v>
+        <v>4.2377777099609304</v>
       </c>
       <c r="P14" s="2">
-        <v>2.48480224609375</v>
+        <v>2.9340515136718701</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0.90249495473267238</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="3"/>
-        <v>125.99708707440469</v>
+        <v>19.521362709850589</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>3537108314</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>128521481632</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1285.21481632</v>
       </c>
       <c r="E15" s="2">
-        <v>174.36022949218699</v>
+        <v>200.052963256835</v>
       </c>
       <c r="F15" s="2">
-        <v>138.97393798828099</v>
+        <v>156.498443603515</v>
       </c>
       <c r="G15" s="2">
-        <v>101.244812011718</v>
+        <v>107.57037353515599</v>
       </c>
       <c r="H15" s="2">
-        <v>142.02685546875</v>
+        <v>160.17233276367099</v>
       </c>
       <c r="I15" s="2">
-        <v>154.91784667968699</v>
+        <v>173.81083679199199</v>
       </c>
       <c r="J15" s="2">
-        <v>150.94470214843699</v>
+        <v>169.04852294921801</v>
       </c>
       <c r="K15" s="2">
-        <v>145.44256591796801</v>
+        <v>158.80554199218699</v>
       </c>
       <c r="L15" s="2">
-        <v>149.81793212890599</v>
+        <v>167.58076477050699</v>
       </c>
       <c r="N15" s="2">
-        <v>142.064697265625</v>
+        <v>160.189041137695</v>
       </c>
       <c r="O15" s="2">
-        <v>3.86163330078125</v>
+        <v>4.5331268310546804</v>
       </c>
       <c r="P15" s="2">
-        <v>2.57501220703125</v>
+        <v>3.01373291015625</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>0.89340681530594634</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="3"/>
-        <v>126.88776063225387</v>
+        <v>20.585585523240734</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>3455514837</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>127215986000</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1272.15986</v>
       </c>
       <c r="E16" s="2">
-        <v>175.415283203125</v>
+        <v>185.87821960449199</v>
       </c>
       <c r="F16" s="2">
-        <v>140.36730957031199</v>
+        <v>140.84634399414</v>
       </c>
       <c r="G16" s="2">
-        <v>102.459411621093</v>
+        <v>94.546981811523395</v>
       </c>
       <c r="H16" s="2">
-        <v>143.22692871093699</v>
+        <v>145.14207458496</v>
       </c>
       <c r="I16" s="2">
-        <v>156.25939941406199</v>
+        <v>158.75769042968699</v>
       </c>
       <c r="J16" s="2">
-        <v>152.43170166015599</v>
+        <v>153.34828186035099</v>
       </c>
       <c r="K16" s="2">
-        <v>145.352783203125</v>
+        <v>147.11474609375</v>
       </c>
       <c r="L16" s="2">
-        <v>151.08807373046801</v>
+        <v>152.44465637207</v>
       </c>
       <c r="N16" s="2">
-        <v>143.41400146484301</v>
+        <v>145.09376525878901</v>
       </c>
       <c r="O16" s="2">
-        <v>3.80078125</v>
+        <v>4.5857696533203098</v>
       </c>
       <c r="P16" s="2">
-        <v>2.5599365234375</v>
+        <v>3.1445007324218701</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>0.88433176668239755</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="3"/>
-        <v>126.66012290343672</v>
+        <v>18.464392128411227</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>3372644124</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>125890054592</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1258.90054592</v>
       </c>
       <c r="E17" s="2">
-        <v>174.197509765625</v>
+        <v>203.345123291015</v>
       </c>
       <c r="F17" s="2">
-        <v>139.96087646484301</v>
+        <v>158.94956970214801</v>
       </c>
       <c r="G17" s="2">
-        <v>102.065612792968</v>
+        <v>108.906814575195</v>
       </c>
       <c r="H17" s="2">
-        <v>142.47100830078099</v>
+        <v>162.56137084960901</v>
       </c>
       <c r="I17" s="2">
-        <v>156.01275634765599</v>
+        <v>176.761474609375</v>
       </c>
       <c r="J17" s="2">
-        <v>152.15344238281199</v>
+        <v>171.62171936035099</v>
       </c>
       <c r="K17" s="2">
-        <v>144.55419921875</v>
+        <v>159.84521484375</v>
       </c>
       <c r="L17" s="2">
-        <v>150.60925292968699</v>
+        <v>169.95103454589801</v>
       </c>
       <c r="N17" s="2">
-        <v>142.68408203125</v>
+        <v>162.55802917480401</v>
       </c>
       <c r="O17" s="2">
-        <v>3.95819091796875</v>
+        <v>4.6417236328125</v>
       </c>
       <c r="P17" s="2">
-        <v>2.59722900390625</v>
+        <v>3.1582794189453098</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>0.87511466039407049</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="3"/>
-        <v>124.67846804513876</v>
+        <v>20.464859850807635</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>3292618146</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>124609638944</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1246.0963894399999</v>
       </c>
       <c r="E18" s="2">
-        <v>178.13342285156199</v>
+        <v>210.058334350585</v>
       </c>
       <c r="F18" s="2">
-        <v>143.427490234375</v>
+        <v>165.20170593261699</v>
       </c>
       <c r="G18" s="2">
-        <v>104.154052734375</v>
+        <v>113.370956420898</v>
       </c>
       <c r="H18" s="2">
-        <v>146.01892089843699</v>
+        <v>168.57577514648401</v>
       </c>
       <c r="I18" s="2">
-        <v>159.76220703125</v>
+        <v>183.096923828125</v>
       </c>
       <c r="J18" s="2">
-        <v>155.37677001953099</v>
+        <v>177.68373107910099</v>
       </c>
       <c r="K18" s="2">
-        <v>146.537353515625</v>
+        <v>163.726806640625</v>
       </c>
       <c r="L18" s="2">
-        <v>153.94342041015599</v>
+        <v>175.69958496093699</v>
       </c>
       <c r="N18" s="2">
-        <v>146.000244140625</v>
+        <v>168.63545227050699</v>
       </c>
       <c r="O18" s="2">
-        <v>3.96453857421875</v>
+        <v>4.8383941650390598</v>
       </c>
       <c r="P18" s="2">
-        <v>2.63763427734375</v>
+        <v>3.2617492675781201</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>0.86621395327630601</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="3"/>
-        <v>126.48362672457532</v>
+        <v>21.006166475708298</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>3211811223</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>123316728176</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1233.1672817599999</v>
       </c>
       <c r="E19" s="2">
-        <v>163.62341308593699</v>
+        <v>190.58819580078099</v>
       </c>
       <c r="F19" s="2">
-        <v>126.095458984375</v>
+        <v>143.42663574218699</v>
       </c>
       <c r="G19" s="2">
-        <v>89.925048828125</v>
+        <v>95.694625854492102</v>
       </c>
       <c r="H19" s="2">
-        <v>129.53259277343699</v>
+        <v>147.79911804199199</v>
       </c>
       <c r="I19" s="2">
-        <v>142.67199707031199</v>
+        <v>162.22735595703099</v>
       </c>
       <c r="J19" s="2">
-        <v>137.95654296875</v>
+        <v>155.91003417968699</v>
       </c>
       <c r="K19" s="2">
-        <v>135.981689453125</v>
+        <v>147.86560058593699</v>
       </c>
       <c r="L19" s="2">
-        <v>137.08013916015599</v>
+        <v>154.889404296875</v>
       </c>
       <c r="N19" s="2">
-        <v>129.65832519531199</v>
+        <v>147.82711791992099</v>
       </c>
       <c r="O19" s="2">
-        <v>4.302490234375</v>
+        <v>4.8937683105468697</v>
       </c>
       <c r="P19" s="2">
-        <v>2.89959716796875</v>
+        <v>3.4425048828125</v>
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>0.85722638732977363</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="3"/>
-        <v>111.03875654463214</v>
+        <v>18.226103664236863</v>
       </c>
     </row>
   </sheetData>
